--- a/www.eia.gov/petroleum/production/xls/comp-stat-gas.xlsx
+++ b/www.eia.gov/petroleum/production/xls/comp-stat-gas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eianas02\OEA\MLW\Documents\EIA-914 Survey Expansion\Webpage Docs\December 2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eianas01\OES\mcr\Documents\914\2017.01_Final Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="60" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3659" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="105">
   <si>
     <t>Report Month</t>
   </si>
@@ -645,7 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -703,6 +703,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -861,7 +867,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1099,12 +1107,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:U1"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1113,15 +1121,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -4183,232 +4191,255 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
+      <c r="A136" s="11">
         <v>42370</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="25">
         <v>1548</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="25">
         <v>1618</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E136" s="3">
+      <c r="D136" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E136" s="25">
+        <v>1642</v>
+      </c>
+      <c r="F136" s="25">
         <v>1641</v>
       </c>
-      <c r="F136" s="3">
+      <c r="G136" s="25">
         <v>1641</v>
       </c>
-      <c r="G136" s="3">
-        <v>1629</v>
-      </c>
     </row>
     <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
+      <c r="A137" s="11">
         <v>42401</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="25">
         <v>1606</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="25">
         <v>1652</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E137" s="3">
+      <c r="D137" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="25">
+        <v>1692</v>
+      </c>
+      <c r="F137" s="25">
         <v>1690</v>
       </c>
-      <c r="F137" s="3">
+      <c r="G137" s="25">
         <v>1690</v>
       </c>
-      <c r="G137" s="3">
-        <v>1677</v>
-      </c>
     </row>
     <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
+      <c r="A138" s="11">
         <v>42430</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="25">
         <v>1618</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="25">
         <v>1673</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E138" s="3">
+      <c r="D138" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="25">
+        <v>1712</v>
+      </c>
+      <c r="F138" s="25">
         <v>1711</v>
       </c>
-      <c r="F138" s="3">
-        <v>1710</v>
-      </c>
-      <c r="G138" s="3">
+      <c r="G138" s="25">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="11">
+        <v>42461</v>
+      </c>
+      <c r="B139" s="25">
+        <v>1514</v>
+      </c>
+      <c r="C139" s="25">
+        <v>1584</v>
+      </c>
+      <c r="D139" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E139" s="25">
+        <v>1619</v>
+      </c>
+      <c r="F139" s="25">
+        <v>1617</v>
+      </c>
+      <c r="G139" s="25">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="11">
+        <v>42491</v>
+      </c>
+      <c r="B140" s="25">
+        <v>1579</v>
+      </c>
+      <c r="C140" s="25">
+        <v>1652</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E140" s="25">
+        <v>1645</v>
+      </c>
+      <c r="F140" s="25">
+        <v>1644</v>
+      </c>
+      <c r="G140" s="25">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="11">
+        <v>42522</v>
+      </c>
+      <c r="B141" s="25">
+        <v>1595</v>
+      </c>
+      <c r="C141" s="25">
+        <v>1668</v>
+      </c>
+      <c r="D141" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" s="25">
+        <v>1666</v>
+      </c>
+      <c r="F141" s="25">
+        <v>1664</v>
+      </c>
+      <c r="G141" s="25">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="11">
+        <v>42552</v>
+      </c>
+      <c r="B142" s="25">
+        <v>1627</v>
+      </c>
+      <c r="C142" s="25">
+        <v>1700</v>
+      </c>
+      <c r="D142" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" s="25">
         <v>1698</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
-        <v>42461</v>
-      </c>
-      <c r="B139" s="3">
-        <v>1514</v>
-      </c>
-      <c r="C139" s="3">
-        <v>1584</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E139" s="3">
-        <v>1617</v>
-      </c>
-      <c r="F139" s="3">
-        <v>1617</v>
-      </c>
-      <c r="G139" s="3">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
-        <v>42491</v>
-      </c>
-      <c r="B140" s="3">
-        <v>1579</v>
-      </c>
-      <c r="C140" s="3">
-        <v>1652</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E140" s="3">
-        <v>1644</v>
-      </c>
-      <c r="F140" s="3">
-        <v>1644</v>
-      </c>
-      <c r="G140" s="3">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
-        <v>42522</v>
-      </c>
-      <c r="B141" s="3">
-        <v>1595</v>
-      </c>
-      <c r="C141" s="3">
-        <v>1668</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E141" s="3">
-        <v>1665</v>
-      </c>
-      <c r="F141" s="3">
-        <v>1657</v>
-      </c>
-      <c r="G141" s="3">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
-        <v>42552</v>
-      </c>
-      <c r="B142" s="3">
-        <v>1627</v>
-      </c>
-      <c r="C142" s="3">
-        <v>1700</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E142" s="3">
-        <v>1699</v>
-      </c>
-      <c r="F142" s="3">
+      <c r="F142" s="25">
+        <v>1681</v>
+      </c>
+      <c r="G142" s="25">
         <v>1662</v>
       </c>
-      <c r="G142" s="3">
-        <v>1636</v>
-      </c>
     </row>
     <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
+      <c r="A143" s="11">
         <v>42583</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="25">
         <v>1575</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="25">
         <v>1651</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E143" s="3">
+      <c r="D143" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E143" s="25">
         <v>1638</v>
       </c>
-      <c r="F143" s="3">
-        <v>1597</v>
-      </c>
-      <c r="G143" s="3">
-        <v>1671</v>
+      <c r="F143" s="25">
+        <v>1611</v>
+      </c>
+      <c r="G143" s="25">
+        <v>1621</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
+      <c r="A144" s="11">
         <v>42614</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="25">
         <v>1538</v>
       </c>
-      <c r="C144" s="3">
-        <v>1611</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E144" s="3">
+      <c r="C144" s="25">
+        <v>1610</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E144" s="25">
         <v>1612</v>
       </c>
-      <c r="F144" s="3">
-        <v>1542</v>
-      </c>
-      <c r="G144" s="3">
-        <v>1606</v>
+      <c r="F144" s="25">
+        <v>1559</v>
+      </c>
+      <c r="G144" s="25">
+        <v>1578</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
+      <c r="A145" s="11">
         <v>42644</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="25">
         <v>1639</v>
       </c>
-      <c r="C145" s="3">
-        <v>1717</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E145" s="3">
-        <v>1715</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="C145" s="25">
+        <v>1716</v>
+      </c>
+      <c r="D145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E145" s="25">
+        <v>1718</v>
+      </c>
+      <c r="F145" s="25">
+        <v>1603</v>
+      </c>
+      <c r="G145" s="25">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="11">
+        <v>42675</v>
+      </c>
+      <c r="B146" s="25">
+        <v>1688</v>
+      </c>
+      <c r="C146" s="25">
+        <v>1767</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="25">
+        <v>1764</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4426,12 +4457,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:U1"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4440,15 +4471,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -7510,232 +7541,255 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
+      <c r="A136" s="11">
         <v>42370</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="25">
         <v>3013</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="25">
         <v>3227</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E136" s="3">
+      <c r="D136" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E136" s="25">
         <v>3320</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F136" s="25">
         <v>3248</v>
       </c>
-      <c r="G136" s="3">
-        <v>3247</v>
+      <c r="G136" s="25">
+        <v>3249</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
+      <c r="A137" s="11">
         <v>42401</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="25">
         <v>3198</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="25">
         <v>3444</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E137" s="3">
+      <c r="D137" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="25">
         <v>3390</v>
       </c>
-      <c r="F137" s="3">
-        <v>3449</v>
-      </c>
-      <c r="G137" s="3">
-        <v>3448</v>
+      <c r="F137" s="25">
+        <v>3435</v>
+      </c>
+      <c r="G137" s="25">
+        <v>3436</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
+      <c r="A138" s="11">
         <v>42430</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="25">
         <v>3261</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="25">
         <v>3520</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E138" s="3">
+      <c r="D138" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="25">
+        <v>3534</v>
+      </c>
+      <c r="F138" s="25">
         <v>3535</v>
       </c>
-      <c r="F138" s="3">
+      <c r="G138" s="25">
         <v>3535</v>
       </c>
-      <c r="G138" s="3">
-        <v>3533</v>
-      </c>
     </row>
     <row r="139" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
+      <c r="A139" s="11">
         <v>42461</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="25">
         <v>3292</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="25">
         <v>3561</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E139" s="3">
-        <v>3544</v>
-      </c>
-      <c r="F139" s="3">
+      <c r="D139" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E139" s="25">
         <v>3543</v>
       </c>
-      <c r="G139" s="3">
+      <c r="F139" s="25">
+        <v>3543</v>
+      </c>
+      <c r="G139" s="25">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="11">
+        <v>42491</v>
+      </c>
+      <c r="B140" s="25">
+        <v>3243</v>
+      </c>
+      <c r="C140" s="25">
+        <v>3537</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E140" s="25">
+        <v>3513</v>
+      </c>
+      <c r="F140" s="25">
+        <v>3512</v>
+      </c>
+      <c r="G140" s="25">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="11">
+        <v>42522</v>
+      </c>
+      <c r="B141" s="25">
+        <v>3281</v>
+      </c>
+      <c r="C141" s="25">
+        <v>3531</v>
+      </c>
+      <c r="D141" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" s="25">
+        <v>3504</v>
+      </c>
+      <c r="F141" s="25">
+        <v>3504</v>
+      </c>
+      <c r="G141" s="25">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="11">
+        <v>42552</v>
+      </c>
+      <c r="B142" s="25">
+        <v>3298</v>
+      </c>
+      <c r="C142" s="25">
+        <v>3579</v>
+      </c>
+      <c r="D142" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" s="25">
+        <v>3529</v>
+      </c>
+      <c r="F142" s="25">
+        <v>3526</v>
+      </c>
+      <c r="G142" s="25">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="11">
+        <v>42583</v>
+      </c>
+      <c r="B143" s="25">
+        <v>3356</v>
+      </c>
+      <c r="C143" s="25">
+        <v>3593</v>
+      </c>
+      <c r="D143" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E143" s="25">
+        <v>3587</v>
+      </c>
+      <c r="F143" s="25">
+        <v>3583</v>
+      </c>
+      <c r="G143" s="25">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="11">
+        <v>42614</v>
+      </c>
+      <c r="B144" s="25">
+        <v>3351</v>
+      </c>
+      <c r="C144" s="25">
+        <v>3587</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E144" s="25">
+        <v>3553</v>
+      </c>
+      <c r="F144" s="25">
+        <v>3524</v>
+      </c>
+      <c r="G144" s="25">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="11">
+        <v>42644</v>
+      </c>
+      <c r="B145" s="25">
+        <v>3308</v>
+      </c>
+      <c r="C145" s="25">
         <v>3541</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
-        <v>42491</v>
-      </c>
-      <c r="B140" s="3">
-        <v>3243</v>
-      </c>
-      <c r="C140" s="3">
-        <v>3537</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E140" s="3">
-        <v>3513</v>
-      </c>
-      <c r="F140" s="3">
-        <v>3510</v>
-      </c>
-      <c r="G140" s="3">
-        <v>3508</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
-        <v>42522</v>
-      </c>
-      <c r="B141" s="3">
-        <v>3281</v>
-      </c>
-      <c r="C141" s="3">
-        <v>3531</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E141" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F141" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G141" s="3">
-        <v>3499</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
-        <v>42552</v>
-      </c>
-      <c r="B142" s="3">
-        <v>3298</v>
-      </c>
-      <c r="C142" s="3">
-        <v>3579</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E142" s="3">
-        <v>3528</v>
-      </c>
-      <c r="F142" s="3">
-        <v>3516</v>
-      </c>
-      <c r="G142" s="3">
-        <v>3515</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
-        <v>42583</v>
-      </c>
-      <c r="B143" s="3">
-        <v>3356</v>
-      </c>
-      <c r="C143" s="3">
-        <v>3593</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E143" s="3">
-        <v>3586</v>
-      </c>
-      <c r="F143" s="3">
-        <v>3575</v>
-      </c>
-      <c r="G143" s="3">
-        <v>3559</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
-        <v>42614</v>
-      </c>
-      <c r="B144" s="3">
-        <v>3351</v>
-      </c>
-      <c r="C144" s="3">
-        <v>3591</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E144" s="3">
-        <v>3542</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G144" s="3">
-        <v>3531</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
-        <v>42644</v>
-      </c>
-      <c r="B145" s="3">
-        <v>3307</v>
-      </c>
-      <c r="C145" s="3">
-        <v>3544</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E145" s="3">
-        <v>1136</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="D145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E145" s="25">
+        <v>3652</v>
+      </c>
+      <c r="F145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G145" s="25">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="11">
+        <v>42675</v>
+      </c>
+      <c r="B146" s="25">
+        <v>3402</v>
+      </c>
+      <c r="C146" s="25">
+        <v>3640</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="25">
+        <v>2962</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -7753,12 +7807,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:U1"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7767,26 +7821,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="4" spans="1:7" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -10848,232 +10902,255 @@
       </c>
     </row>
     <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
+      <c r="A137" s="11">
         <v>42370</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="25">
         <v>3537</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="25">
         <v>3627</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E137" s="3">
+      <c r="D137" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="25">
         <v>3774</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137" s="25">
         <v>3500</v>
       </c>
-      <c r="G137" s="3">
-        <v>3609</v>
+      <c r="G137" s="25">
+        <v>3550</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
+      <c r="A138" s="11">
         <v>42401</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="25">
         <v>3887</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="25">
         <v>4014</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E138" s="3">
+      <c r="D138" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="25">
         <v>3774</v>
       </c>
-      <c r="F138" s="3">
+      <c r="F138" s="25">
         <v>3647</v>
       </c>
-      <c r="G138" s="3">
-        <v>3756</v>
+      <c r="G138" s="25">
+        <v>3937</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
+      <c r="A139" s="11">
         <v>42430</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="25">
         <v>3747</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="25">
         <v>3895</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E139" s="3">
+      <c r="D139" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E139" s="25">
         <v>3774</v>
       </c>
-      <c r="F139" s="3">
+      <c r="F139" s="25">
         <v>3710</v>
       </c>
-      <c r="G139" s="3">
-        <v>3819</v>
+      <c r="G139" s="25">
+        <v>3771</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
+      <c r="A140" s="11">
         <v>42461</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="25">
         <v>3805</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="25">
         <v>3965</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E140" s="3">
+      <c r="D140" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E140" s="25">
         <v>3832</v>
       </c>
-      <c r="F140" s="3">
-        <v>3592</v>
-      </c>
-      <c r="G140" s="3">
-        <v>3700</v>
+      <c r="F140" s="25">
+        <v>3593</v>
+      </c>
+      <c r="G140" s="25">
+        <v>3811</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
+      <c r="A141" s="11">
         <v>42491</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="25">
         <v>3767</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="25">
         <v>3928</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E141" s="3">
+      <c r="D141" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" s="25">
         <v>3832</v>
       </c>
-      <c r="F141" s="3">
-        <v>3661</v>
-      </c>
-      <c r="G141" s="3">
-        <v>3770</v>
+      <c r="F141" s="25">
+        <v>3662</v>
+      </c>
+      <c r="G141" s="25">
+        <v>3716</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
+      <c r="A142" s="11">
         <v>42522</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="25">
         <v>3692</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="25">
         <v>3840</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E142" s="3">
+      <c r="D142" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" s="25">
         <v>3832</v>
       </c>
-      <c r="F142" s="3">
-        <v>3750</v>
-      </c>
-      <c r="G142" s="3">
-        <v>3859</v>
+      <c r="F142" s="25">
+        <v>3752</v>
+      </c>
+      <c r="G142" s="25">
+        <v>3878</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
+      <c r="A143" s="11">
         <v>42552</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="25">
         <v>3637</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="25">
         <v>3801</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E143" s="3">
+      <c r="D143" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E143" s="25">
         <v>4079</v>
       </c>
-      <c r="F143" s="3">
+      <c r="F143" s="25">
         <v>2</v>
       </c>
-      <c r="G143" s="3">
-        <v>3601</v>
+      <c r="G143" s="25">
+        <v>3647</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
+      <c r="A144" s="11">
         <v>42583</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="25">
         <v>4114</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="25">
         <v>4279</v>
       </c>
-      <c r="D144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E144" s="3">
+      <c r="D144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E144" s="25">
         <v>4079</v>
       </c>
-      <c r="F144" s="3">
+      <c r="F144" s="25">
         <v>2</v>
       </c>
-      <c r="G144" s="3">
-        <v>4059</v>
+      <c r="G144" s="25">
+        <v>3957</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
+      <c r="A145" s="11">
         <v>42614</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="25">
         <v>4218</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="25">
         <v>4380</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E145" s="3">
+      <c r="D145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E145" s="25">
         <v>4079</v>
       </c>
-      <c r="F145" s="3">
+      <c r="F145" s="25">
         <v>2</v>
       </c>
-      <c r="G145" s="3">
-        <v>4046</v>
+      <c r="G145" s="25">
+        <v>3994</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="2">
+      <c r="A146" s="11">
         <v>42644</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="25">
         <v>3934</v>
       </c>
-      <c r="C146" s="3">
-        <v>4093</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G146" s="3" t="s">
+      <c r="C146" s="25">
+        <v>4094</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F146" s="25">
+        <v>2</v>
+      </c>
+      <c r="G146" s="25">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="11">
+        <v>42675</v>
+      </c>
+      <c r="B147" s="25">
+        <v>3978</v>
+      </c>
+      <c r="C147" s="25">
+        <v>4149</v>
+      </c>
+      <c r="D147" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E147" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F147" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G147" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -11092,12 +11169,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:U1"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11106,15 +11183,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -14176,232 +14253,255 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
+      <c r="A136" s="11">
         <v>42370</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="25">
         <v>5985</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="25">
         <v>6903</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E136" s="3">
+      <c r="D136" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E136" s="25">
         <v>4347</v>
       </c>
-      <c r="F136" s="3">
-        <v>4364</v>
-      </c>
-      <c r="G136" s="3">
+      <c r="F136" s="25">
+        <v>4366</v>
+      </c>
+      <c r="G136" s="25">
         <v>6903</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
+      <c r="A137" s="11">
         <v>42401</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="25">
         <v>5970</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="25">
         <v>6940</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E137" s="3">
+      <c r="D137" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="25">
         <v>4129</v>
       </c>
-      <c r="F137" s="3">
-        <v>4141</v>
-      </c>
-      <c r="G137" s="3">
+      <c r="F137" s="25">
+        <v>4151</v>
+      </c>
+      <c r="G137" s="25">
         <v>6940</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
+      <c r="A138" s="11">
         <v>42430</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="25">
         <v>5928</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="25">
         <v>6921</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E138" s="3">
+      <c r="D138" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="25">
         <v>4507</v>
       </c>
-      <c r="F138" s="3">
-        <v>4524</v>
-      </c>
-      <c r="G138" s="3">
+      <c r="F138" s="25">
+        <v>4501</v>
+      </c>
+      <c r="G138" s="25">
         <v>6921</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
+      <c r="A139" s="11">
         <v>42461</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="25">
         <v>5848</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="25">
         <v>6784</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E139" s="3">
+      <c r="D139" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E139" s="25">
         <v>4217</v>
       </c>
-      <c r="F139" s="3">
-        <v>4259</v>
-      </c>
-      <c r="G139" s="3">
+      <c r="F139" s="25">
+        <v>4287</v>
+      </c>
+      <c r="G139" s="25">
         <v>6784</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
+      <c r="A140" s="11">
         <v>42491</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="25">
         <v>5875</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="25">
         <v>6833</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E140" s="3">
+      <c r="D140" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E140" s="25">
         <v>4059</v>
       </c>
-      <c r="F140" s="3">
-        <v>4280</v>
-      </c>
-      <c r="G140" s="3">
+      <c r="F140" s="25">
+        <v>4319</v>
+      </c>
+      <c r="G140" s="25">
         <v>6833</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
+      <c r="A141" s="11">
         <v>42522</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="25">
         <v>5828</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="25">
         <v>6736</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F141" s="3">
-        <v>4626</v>
-      </c>
-      <c r="G141" s="3">
+      <c r="D141" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F141" s="25">
+        <v>4659</v>
+      </c>
+      <c r="G141" s="25">
         <v>6736</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
+      <c r="A142" s="11">
         <v>42552</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="25">
         <v>5860</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="25">
         <v>6794</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F142" s="3">
-        <v>4023</v>
-      </c>
-      <c r="G142" s="3">
-        <v>6774</v>
+      <c r="D142" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F142" s="25">
+        <v>4218</v>
+      </c>
+      <c r="G142" s="25">
+        <v>6794</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
+      <c r="A143" s="11">
         <v>42583</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="25">
         <v>5943</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="25">
         <v>6813</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F143" s="3">
-        <v>1334</v>
-      </c>
-      <c r="G143" s="3">
-        <v>6878</v>
+      <c r="D143" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E143" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F143" s="25">
+        <v>5026</v>
+      </c>
+      <c r="G143" s="25">
+        <v>6813</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
+      <c r="A144" s="11">
         <v>42614</v>
       </c>
-      <c r="B144" s="3">
-        <v>5901</v>
-      </c>
-      <c r="C144" s="3">
-        <v>6766</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G144" s="3">
-        <v>6949</v>
+      <c r="B144" s="25">
+        <v>5909</v>
+      </c>
+      <c r="C144" s="25">
+        <v>6740</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G144" s="25">
+        <v>6884</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
+      <c r="A145" s="11">
         <v>42644</v>
       </c>
-      <c r="B145" s="3">
-        <v>5873</v>
-      </c>
-      <c r="C145" s="3">
-        <v>6734</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="B145" s="25">
+        <v>5856</v>
+      </c>
+      <c r="C145" s="25">
+        <v>6679</v>
+      </c>
+      <c r="D145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G145" s="25">
+        <v>6925</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="11">
+        <v>42675</v>
+      </c>
+      <c r="B146" s="25">
+        <v>5653</v>
+      </c>
+      <c r="C146" s="25">
+        <v>6580</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14419,12 +14519,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:U1"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14433,26 +14533,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="4" spans="1:7" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -17514,232 +17614,255 @@
       </c>
     </row>
     <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
+      <c r="A137" s="11">
         <v>42370</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="25">
         <v>13840</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="25">
         <v>14434</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E137" s="3">
+      <c r="D137" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="25">
         <v>14516</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137" s="25">
         <v>13940</v>
       </c>
-      <c r="G137" s="3">
-        <v>14544</v>
+      <c r="G137" s="25">
+        <v>14478</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
+      <c r="A138" s="11">
         <v>42401</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="25">
         <v>14248</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="25">
         <v>14855</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E138" s="3">
+      <c r="D138" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="25">
         <v>14932</v>
       </c>
-      <c r="F138" s="3">
+      <c r="F138" s="25">
         <v>14355</v>
       </c>
-      <c r="G138" s="3">
-        <v>14960</v>
+      <c r="G138" s="25">
+        <v>14899</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
+      <c r="A139" s="11">
         <v>42430</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="25">
         <v>13995</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="25">
         <v>14600</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E139" s="3">
+      <c r="D139" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E139" s="25">
         <v>14561</v>
       </c>
-      <c r="F139" s="3">
+      <c r="F139" s="25">
         <v>13984</v>
       </c>
-      <c r="G139" s="3">
-        <v>14588</v>
+      <c r="G139" s="25">
+        <v>14527</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
+      <c r="A140" s="11">
         <v>42461</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="25">
         <v>13723</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="25">
         <v>14317</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E140" s="3">
+      <c r="D140" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E140" s="25">
         <v>14440</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="25">
         <v>13863</v>
       </c>
-      <c r="G140" s="3">
-        <v>14468</v>
+      <c r="G140" s="25">
+        <v>14409</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
+      <c r="A141" s="11">
         <v>42491</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="25">
         <v>13651</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="25">
         <v>14257</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E141" s="3">
+      <c r="D141" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" s="25">
         <v>14859</v>
       </c>
-      <c r="F141" s="3">
+      <c r="F141" s="25">
         <v>13822</v>
       </c>
-      <c r="G141" s="3">
-        <v>14426</v>
+      <c r="G141" s="25">
+        <v>14309</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
+      <c r="A142" s="11">
         <v>42522</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="25">
         <v>13878</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="25">
         <v>14494</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E142" s="3">
+      <c r="D142" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" s="25">
         <v>14604</v>
       </c>
-      <c r="F142" s="3">
+      <c r="F142" s="25">
         <v>14027</v>
       </c>
-      <c r="G142" s="3">
-        <v>14632</v>
+      <c r="G142" s="25">
+        <v>14578</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
+      <c r="A143" s="11">
         <v>42552</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="25">
         <v>13703</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="25">
         <v>14312</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E143" s="3">
+      <c r="D143" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E143" s="25">
         <v>14421</v>
       </c>
-      <c r="F143" s="3">
+      <c r="F143" s="25">
         <v>13868</v>
       </c>
-      <c r="G143" s="3">
-        <v>14472</v>
+      <c r="G143" s="25">
+        <v>14388</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
+      <c r="A144" s="11">
         <v>42583</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="25">
         <v>13696</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="25">
         <v>14310</v>
       </c>
-      <c r="D144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E144" s="3">
+      <c r="D144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E144" s="25">
         <v>14209</v>
       </c>
-      <c r="F144" s="3">
+      <c r="F144" s="25">
         <v>13847</v>
       </c>
-      <c r="G144" s="3">
-        <v>14442</v>
+      <c r="G144" s="25">
+        <v>14396</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
+      <c r="A145" s="11">
         <v>42614</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="25">
         <v>13368</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="25">
         <v>13968</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E145" s="3">
+      <c r="D145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E145" s="25">
         <v>14048</v>
       </c>
-      <c r="F145" s="3">
-        <v>13472</v>
-      </c>
-      <c r="G145" s="3">
-        <v>14081</v>
+      <c r="F145" s="25">
+        <v>13471</v>
+      </c>
+      <c r="G145" s="25">
+        <v>14013</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="2">
+      <c r="A146" s="11">
         <v>42644</v>
       </c>
-      <c r="B146" s="3">
-        <v>13019</v>
-      </c>
-      <c r="C146" s="3">
-        <v>13606</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G146" s="3" t="s">
+      <c r="B146" s="25">
+        <v>13018</v>
+      </c>
+      <c r="C146" s="25">
+        <v>13605</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="25">
+        <v>13702</v>
+      </c>
+      <c r="F146" s="25">
+        <v>13064</v>
+      </c>
+      <c r="G146" s="25">
+        <v>13667</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="11">
+        <v>42675</v>
+      </c>
+      <c r="B147" s="25">
+        <v>13931</v>
+      </c>
+      <c r="C147" s="25">
+        <v>14560</v>
+      </c>
+      <c r="D147" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E147" s="25">
+        <v>14579</v>
+      </c>
+      <c r="F147" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G147" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -17758,12 +17881,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:U1"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17772,15 +17895,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -20842,232 +20965,255 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
+      <c r="A136" s="11">
         <v>42370</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="25">
         <v>20986</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="25">
         <v>22823</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E136" s="3">
-        <v>22681</v>
-      </c>
-      <c r="F136" s="3">
-        <v>22810</v>
-      </c>
-      <c r="G136" s="3">
-        <v>22723</v>
+      <c r="D136" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E136" s="25">
+        <v>22710</v>
+      </c>
+      <c r="F136" s="25">
+        <v>22815</v>
+      </c>
+      <c r="G136" s="25">
+        <v>22808</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
+      <c r="A137" s="11">
         <v>42401</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="25">
         <v>21000</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="25">
         <v>22930</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E137" s="3">
-        <v>22726</v>
-      </c>
-      <c r="F137" s="3">
-        <v>22887</v>
-      </c>
-      <c r="G137" s="3">
-        <v>22805</v>
+      <c r="D137" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="25">
+        <v>22766</v>
+      </c>
+      <c r="F137" s="25">
+        <v>22896</v>
+      </c>
+      <c r="G137" s="25">
+        <v>22892</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
+      <c r="A138" s="11">
         <v>42430</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="25">
         <v>20744</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="25">
         <v>22663</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E138" s="3">
-        <v>22555</v>
-      </c>
-      <c r="F138" s="3">
-        <v>22764</v>
-      </c>
-      <c r="G138" s="3">
-        <v>22663</v>
+      <c r="D138" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="25">
+        <v>22610</v>
+      </c>
+      <c r="F138" s="25">
+        <v>22784</v>
+      </c>
+      <c r="G138" s="25">
+        <v>22787</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
+      <c r="A139" s="11">
         <v>42461</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="25">
         <v>20730</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="25">
         <v>22697</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E139" s="3">
-        <v>22324</v>
-      </c>
-      <c r="F139" s="3">
-        <v>22612</v>
-      </c>
-      <c r="G139" s="3">
-        <v>22561</v>
+      <c r="D139" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E139" s="25">
+        <v>22406</v>
+      </c>
+      <c r="F139" s="25">
+        <v>22651</v>
+      </c>
+      <c r="G139" s="25">
+        <v>22642</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
+      <c r="A140" s="11">
         <v>42491</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="25">
         <v>20499</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="25">
         <v>22524</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E140" s="3">
-        <v>22133</v>
-      </c>
-      <c r="F140" s="3">
-        <v>22460</v>
-      </c>
-      <c r="G140" s="3">
-        <v>22406</v>
+      <c r="D140" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E140" s="25">
+        <v>22243</v>
+      </c>
+      <c r="F140" s="25">
+        <v>22503</v>
+      </c>
+      <c r="G140" s="25">
+        <v>22462</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
+      <c r="A141" s="11">
         <v>42522</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="25">
         <v>20463</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="25">
         <v>22502</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E141" s="3">
-        <v>21976</v>
-      </c>
-      <c r="F141" s="3">
-        <v>22407</v>
-      </c>
-      <c r="G141" s="3">
-        <v>22351</v>
+      <c r="D141" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" s="25">
+        <v>22100</v>
+      </c>
+      <c r="F141" s="25">
+        <v>22470</v>
+      </c>
+      <c r="G141" s="25">
+        <v>22431</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
+      <c r="A142" s="11">
         <v>42552</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="25">
         <v>20017</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="25">
         <v>22085</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E142" s="3">
-        <v>21441</v>
-      </c>
-      <c r="F142" s="3">
-        <v>22016</v>
-      </c>
-      <c r="G142" s="3">
-        <v>22107</v>
+      <c r="D142" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" s="25">
+        <v>21578</v>
+      </c>
+      <c r="F142" s="25">
+        <v>22077</v>
+      </c>
+      <c r="G142" s="25">
+        <v>21971</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
+      <c r="A143" s="11">
         <v>42583</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="25">
         <v>19922</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="25">
         <v>22078</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E143" s="3">
-        <v>21095</v>
-      </c>
-      <c r="F143" s="3">
-        <v>21686</v>
-      </c>
-      <c r="G143" s="3">
-        <v>22137</v>
+      <c r="D143" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E143" s="25">
+        <v>21290</v>
+      </c>
+      <c r="F143" s="25">
+        <v>21836</v>
+      </c>
+      <c r="G143" s="25">
+        <v>21719</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
+      <c r="A144" s="11">
         <v>42614</v>
       </c>
-      <c r="B144" s="3">
-        <v>19576</v>
-      </c>
-      <c r="C144" s="3">
-        <v>21756</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E144" s="3">
-        <v>18606</v>
-      </c>
-      <c r="F144" s="3">
-        <v>18555</v>
-      </c>
-      <c r="G144" s="3">
-        <v>21953</v>
+      <c r="B144" s="25">
+        <v>19568</v>
+      </c>
+      <c r="C144" s="25">
+        <v>21755</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E144" s="25">
+        <v>20798</v>
+      </c>
+      <c r="F144" s="25">
+        <v>21409</v>
+      </c>
+      <c r="G144" s="25">
+        <v>21553</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
+      <c r="A145" s="11">
         <v>42644</v>
       </c>
-      <c r="B145" s="3">
-        <v>19449</v>
-      </c>
-      <c r="C145" s="3">
-        <v>21535</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="B145" s="25">
+        <v>19423</v>
+      </c>
+      <c r="C145" s="25">
+        <v>21512</v>
+      </c>
+      <c r="D145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E145" s="25">
+        <v>18677</v>
+      </c>
+      <c r="F145" s="25">
+        <v>18554</v>
+      </c>
+      <c r="G145" s="25">
+        <v>21291</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="11">
+        <v>42675</v>
+      </c>
+      <c r="B146" s="25">
+        <v>19296</v>
+      </c>
+      <c r="C146" s="25">
+        <v>21248</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -21085,12 +21231,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:U1"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21099,15 +21245,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -24169,232 +24315,255 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
+      <c r="A136" s="11">
         <v>42370</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="25">
         <v>1059</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="25">
         <v>1103</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E136" s="3">
+      <c r="D136" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E136" s="25">
         <v>1087</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F136" s="25">
         <v>1087</v>
       </c>
-      <c r="G136" s="3">
+      <c r="G136" s="25">
         <v>1078</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
+      <c r="A137" s="11">
         <v>42401</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="25">
         <v>1003</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="25">
         <v>1079</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E137" s="3">
+      <c r="D137" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="25">
         <v>1060</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137" s="25">
         <v>1060</v>
       </c>
-      <c r="G137" s="3">
+      <c r="G137" s="25">
         <v>1052</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
+      <c r="A138" s="11">
         <v>42430</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="25">
         <v>996</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="25">
         <v>1071</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E138" s="3">
+      <c r="D138" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="25">
         <v>1063</v>
       </c>
-      <c r="F138" s="3">
+      <c r="F138" s="25">
         <v>1063</v>
       </c>
-      <c r="G138" s="3">
+      <c r="G138" s="25">
         <v>1055</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
+      <c r="A139" s="11">
         <v>42461</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="25">
         <v>983</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="25">
         <v>1057</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E139" s="3">
+      <c r="D139" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E139" s="25">
         <v>1050</v>
       </c>
-      <c r="F139" s="3">
+      <c r="F139" s="25">
         <v>1050</v>
       </c>
-      <c r="G139" s="3">
+      <c r="G139" s="25">
         <v>1042</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
+      <c r="A140" s="11">
         <v>42491</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="25">
         <v>954</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="25">
         <v>1025</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E140" s="3">
+      <c r="D140" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E140" s="25">
         <v>1021</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="25">
         <v>1021</v>
       </c>
-      <c r="G140" s="3">
+      <c r="G140" s="25">
         <v>1013</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
+      <c r="A141" s="11">
         <v>42522</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="25">
         <v>919</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="25">
         <v>995</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E141" s="3">
+      <c r="D141" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" s="25">
         <v>989</v>
       </c>
-      <c r="F141" s="3">
-        <v>988</v>
-      </c>
-      <c r="G141" s="3">
+      <c r="F141" s="25">
+        <v>989</v>
+      </c>
+      <c r="G141" s="25">
         <v>980</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
+      <c r="A142" s="11">
         <v>42552</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="25">
         <v>911</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="25">
         <v>984</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E142" s="3">
-        <v>976</v>
-      </c>
-      <c r="F142" s="3">
-        <v>976</v>
-      </c>
-      <c r="G142" s="3">
+      <c r="D142" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" s="25">
+        <v>977</v>
+      </c>
+      <c r="F142" s="25">
+        <v>977</v>
+      </c>
+      <c r="G142" s="25">
         <v>968</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
+      <c r="A143" s="11">
         <v>42583</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="25">
         <v>904</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="25">
         <v>979</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E143" s="3">
+      <c r="D143" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E143" s="25">
+        <v>975</v>
+      </c>
+      <c r="F143" s="25">
         <v>974</v>
       </c>
-      <c r="F143" s="3">
-        <v>794</v>
-      </c>
-      <c r="G143" s="3">
+      <c r="G143" s="25">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="11">
+        <v>42614</v>
+      </c>
+      <c r="B144" s="25">
+        <v>890</v>
+      </c>
+      <c r="C144" s="25">
         <v>967</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
-        <v>42614</v>
-      </c>
-      <c r="B144" s="3">
-        <v>892</v>
-      </c>
-      <c r="C144" s="3">
-        <v>967</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E144" s="3">
-        <v>817</v>
-      </c>
-      <c r="F144" s="3">
-        <v>630</v>
-      </c>
-      <c r="G144" s="3">
-        <v>949</v>
+      <c r="D144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E144" s="25">
+        <v>960</v>
+      </c>
+      <c r="F144" s="25">
+        <v>888</v>
+      </c>
+      <c r="G144" s="25">
+        <v>945</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
+      <c r="A145" s="11">
         <v>42644</v>
       </c>
-      <c r="B145" s="3">
-        <v>872</v>
-      </c>
-      <c r="C145" s="3">
+      <c r="B145" s="25">
+        <v>870</v>
+      </c>
+      <c r="C145" s="25">
         <v>944</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="D145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E145" s="25">
+        <v>735</v>
+      </c>
+      <c r="F145" s="25">
+        <v>258</v>
+      </c>
+      <c r="G145" s="25">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="11">
+        <v>42675</v>
+      </c>
+      <c r="B146" s="25">
+        <v>852</v>
+      </c>
+      <c r="C146" s="25">
+        <v>925</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="25">
+        <v>496</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -24412,12 +24581,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:U1"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24426,15 +24595,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -27496,232 +27665,255 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
+      <c r="A136" s="11">
         <v>42370</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="25">
         <v>3520</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="25">
         <v>3686</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G136" s="3">
-        <v>3508</v>
+      <c r="D136" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F136" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G136" s="25">
+        <v>3509</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
+      <c r="A137" s="11">
         <v>42401</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="25">
         <v>3544</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="25">
         <v>3727</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G137" s="3">
-        <v>3638</v>
+      <c r="D137" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F137" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G137" s="25">
+        <v>3640</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
+      <c r="A138" s="11">
         <v>42430</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="25">
         <v>3416</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="25">
         <v>3622</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G138" s="3">
-        <v>3503</v>
+      <c r="D138" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F138" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G138" s="25">
+        <v>3504</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
+      <c r="A139" s="11">
         <v>42461</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="25">
         <v>3346</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="25">
         <v>3694</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G139" s="3">
-        <v>3612</v>
+      <c r="D139" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E139" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F139" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G139" s="25">
+        <v>3613</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
+      <c r="A140" s="11">
         <v>42491</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="25">
         <v>3341</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="25">
         <v>3708</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G140" s="3">
-        <v>3636</v>
+      <c r="D140" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E140" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F140" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G140" s="25">
+        <v>3637</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
+      <c r="A141" s="11">
         <v>42522</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="25">
         <v>3195</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="25">
         <v>3476</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G141" s="3">
-        <v>3335</v>
+      <c r="D141" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F141" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G141" s="25">
+        <v>3336</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
+      <c r="A142" s="11">
         <v>42552</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="25">
         <v>3533</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="25">
         <v>3846</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G142" s="3">
-        <v>3732</v>
+      <c r="D142" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F142" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G142" s="25">
+        <v>3733</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
+      <c r="A143" s="11">
         <v>42583</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="25">
         <v>3602</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="25">
         <v>3845</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G143" s="3">
-        <v>3899</v>
+      <c r="D143" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E143" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F143" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G143" s="25">
+        <v>3900</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
+      <c r="A144" s="11">
         <v>42614</v>
       </c>
-      <c r="B144" s="3">
-        <v>3584</v>
-      </c>
-      <c r="C144" s="3">
-        <v>3826</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G144" s="3">
-        <v>3857</v>
+      <c r="B144" s="25">
+        <v>3589</v>
+      </c>
+      <c r="C144" s="25">
+        <v>3831</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G144" s="25">
+        <v>3858</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
+      <c r="A145" s="11">
         <v>42644</v>
       </c>
-      <c r="B145" s="3">
-        <v>3554</v>
-      </c>
-      <c r="C145" s="3">
-        <v>3808</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="B145" s="25">
+        <v>3557</v>
+      </c>
+      <c r="C145" s="25">
+        <v>3811</v>
+      </c>
+      <c r="D145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G145" s="25">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="11">
+        <v>42675</v>
+      </c>
+      <c r="B146" s="25">
+        <v>3610</v>
+      </c>
+      <c r="C146" s="25">
+        <v>3869</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -27739,12 +27931,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:U1"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27753,15 +27945,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -30823,232 +31015,255 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
+      <c r="A136" s="11">
         <v>42370</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="25">
         <v>4846</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="25">
         <v>5030</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E136" s="3">
+      <c r="D136" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E136" s="25">
+        <v>5268</v>
+      </c>
+      <c r="F136" s="25">
+        <v>5268</v>
+      </c>
+      <c r="G136" s="25">
         <v>5267</v>
       </c>
-      <c r="F136" s="3">
+    </row>
+    <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="11">
+        <v>42401</v>
+      </c>
+      <c r="B137" s="25">
+        <v>4832</v>
+      </c>
+      <c r="C137" s="25">
+        <v>5016</v>
+      </c>
+      <c r="D137" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="25">
+        <v>5207</v>
+      </c>
+      <c r="F137" s="25">
+        <v>5206</v>
+      </c>
+      <c r="G137" s="25">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="11">
+        <v>42430</v>
+      </c>
+      <c r="B138" s="25">
+        <v>4852</v>
+      </c>
+      <c r="C138" s="25">
+        <v>5036</v>
+      </c>
+      <c r="D138" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="25">
+        <v>5284</v>
+      </c>
+      <c r="F138" s="25">
         <v>5268</v>
       </c>
-      <c r="G136" s="3">
+      <c r="G138" s="25">
         <v>5267</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
-        <v>42401</v>
-      </c>
-      <c r="B137" s="3">
-        <v>4832</v>
-      </c>
-      <c r="C137" s="3">
-        <v>5016</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E137" s="3">
-        <v>5206</v>
-      </c>
-      <c r="F137" s="3">
-        <v>5206</v>
-      </c>
-      <c r="G137" s="3">
-        <v>5205</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
-        <v>42430</v>
-      </c>
-      <c r="B138" s="3">
-        <v>4852</v>
-      </c>
-      <c r="C138" s="3">
-        <v>5036</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E138" s="3">
-        <v>5283</v>
-      </c>
-      <c r="F138" s="3">
-        <v>5268</v>
-      </c>
-      <c r="G138" s="3">
-        <v>5267</v>
-      </c>
-    </row>
     <row r="139" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
+      <c r="A139" s="11">
         <v>42461</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="25">
         <v>4768</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="25">
         <v>4957</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E139" s="3">
-        <v>5192</v>
-      </c>
-      <c r="F139" s="3">
+      <c r="D139" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E139" s="25">
+        <v>5193</v>
+      </c>
+      <c r="F139" s="25">
         <v>5171</v>
       </c>
-      <c r="G139" s="3">
+      <c r="G139" s="25">
         <v>5170</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
+      <c r="A140" s="11">
         <v>42491</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="25">
         <v>4614</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="25">
         <v>4797</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E140" s="3">
-        <v>4951</v>
-      </c>
-      <c r="F140" s="3">
+      <c r="D140" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E140" s="25">
+        <v>4952</v>
+      </c>
+      <c r="F140" s="25">
         <v>4932</v>
       </c>
-      <c r="G140" s="3">
+      <c r="G140" s="25">
         <v>4931</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
+      <c r="A141" s="11">
         <v>42522</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="25">
         <v>4659</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="25">
         <v>4844</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E141" s="3">
+      <c r="D141" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" s="25">
         <v>5083</v>
       </c>
-      <c r="F141" s="3">
-        <v>5059</v>
-      </c>
-      <c r="G141" s="3">
+      <c r="F141" s="25">
+        <v>5061</v>
+      </c>
+      <c r="G141" s="25">
         <v>5058</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
+      <c r="A142" s="11">
         <v>42552</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="25">
         <v>4233</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="25">
         <v>4406</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E142" s="3">
-        <v>4638</v>
-      </c>
-      <c r="F142" s="3">
-        <v>4684</v>
-      </c>
-      <c r="G142" s="3">
-        <v>5160</v>
+      <c r="D142" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" s="25">
+        <v>4640</v>
+      </c>
+      <c r="F142" s="25">
+        <v>4621</v>
+      </c>
+      <c r="G142" s="25">
+        <v>4683</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
+      <c r="A143" s="11">
         <v>42583</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="25">
         <v>4376</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="25">
         <v>4508</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E143" s="3">
-        <v>4696</v>
-      </c>
-      <c r="F143" s="3">
-        <v>4684</v>
-      </c>
-      <c r="G143" s="3">
-        <v>5202</v>
+      <c r="D143" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E143" s="25">
+        <v>4689</v>
+      </c>
+      <c r="F143" s="25">
+        <v>4688</v>
+      </c>
+      <c r="G143" s="25">
+        <v>4760</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
+      <c r="A144" s="11">
         <v>42614</v>
       </c>
-      <c r="B144" s="3">
-        <v>4715</v>
-      </c>
-      <c r="C144" s="3">
-        <v>4857</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E144" s="3">
-        <v>5066</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G144" s="3">
-        <v>5136</v>
+      <c r="B144" s="25">
+        <v>4706</v>
+      </c>
+      <c r="C144" s="25">
+        <v>4847</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E144" s="25">
+        <v>5058</v>
+      </c>
+      <c r="F144" s="25">
+        <v>4497</v>
+      </c>
+      <c r="G144" s="25">
+        <v>5015</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
+      <c r="A145" s="11">
         <v>42644</v>
       </c>
-      <c r="B145" s="3">
-        <v>4779</v>
-      </c>
-      <c r="C145" s="3">
-        <v>4924</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E145" s="3">
-        <v>2198</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="B145" s="25">
+        <v>4778</v>
+      </c>
+      <c r="C145" s="25">
+        <v>4921</v>
+      </c>
+      <c r="D145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E145" s="25">
+        <v>5149</v>
+      </c>
+      <c r="F145" s="25">
+        <v>1292</v>
+      </c>
+      <c r="G145" s="25">
+        <v>5048</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="11">
+        <v>42675</v>
+      </c>
+      <c r="B146" s="25">
+        <v>4678</v>
+      </c>
+      <c r="C146" s="25">
+        <v>4806</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="25">
+        <v>4019</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -31069,8 +31284,8 @@
   <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31079,24 +31294,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -33533,12 +33748,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U147"/>
+  <dimension ref="A1:U148"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:U1"/>
-      <selection pane="bottomLeft" sqref="A1:U1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33548,29 +33763,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -42745,61 +42960,61 @@
         <v>8309</v>
       </c>
       <c r="C144" s="3">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="D144" s="3">
         <v>572</v>
       </c>
       <c r="E144" s="3">
-        <v>4671</v>
+        <v>4673</v>
       </c>
       <c r="F144" s="3">
-        <v>3211</v>
+        <v>3230</v>
       </c>
       <c r="G144" s="3">
         <v>662</v>
       </c>
       <c r="H144" s="3">
-        <v>5094</v>
+        <v>5077</v>
       </c>
       <c r="I144" s="3">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J144" s="3">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="K144" s="3">
-        <v>3591</v>
+        <v>3587</v>
       </c>
       <c r="L144" s="3">
         <v>4380</v>
       </c>
       <c r="M144" s="3">
-        <v>6766</v>
+        <v>6740</v>
       </c>
       <c r="N144" s="3">
         <v>13968</v>
       </c>
       <c r="O144" s="3">
-        <v>21756</v>
+        <v>21755</v>
       </c>
       <c r="P144" s="3">
         <v>967</v>
       </c>
       <c r="Q144" s="3">
-        <v>3826</v>
+        <v>3831</v>
       </c>
       <c r="R144" s="3">
-        <v>4857</v>
+        <v>4847</v>
       </c>
       <c r="S144" s="3">
         <v>1510</v>
       </c>
       <c r="T144" s="3">
-        <v>79719</v>
+        <v>79688</v>
       </c>
       <c r="U144" s="3">
-        <v>88028</v>
+        <v>87997</v>
       </c>
     </row>
     <row r="145" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -42810,65 +43025,130 @@
         <v>8772</v>
       </c>
       <c r="C145" s="3">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="D145" s="3">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E145" s="3">
-        <v>4698</v>
+        <v>4706</v>
       </c>
       <c r="F145" s="3">
-        <v>3272</v>
+        <v>3340</v>
       </c>
       <c r="G145" s="3">
         <v>652</v>
       </c>
       <c r="H145" s="3">
-        <v>5002</v>
+        <v>4997</v>
       </c>
       <c r="I145" s="3">
         <v>136</v>
       </c>
       <c r="J145" s="3">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="K145" s="3">
-        <v>3544</v>
+        <v>3541</v>
       </c>
       <c r="L145" s="3">
-        <v>4093</v>
+        <v>4094</v>
       </c>
       <c r="M145" s="3">
-        <v>6734</v>
+        <v>6679</v>
       </c>
       <c r="N145" s="3">
-        <v>13606</v>
+        <v>13605</v>
       </c>
       <c r="O145" s="3">
-        <v>21535</v>
+        <v>21512</v>
       </c>
       <c r="P145" s="3">
         <v>944</v>
       </c>
       <c r="Q145" s="3">
-        <v>3808</v>
+        <v>3811</v>
       </c>
       <c r="R145" s="3">
-        <v>4924</v>
+        <v>4921</v>
       </c>
       <c r="S145" s="3">
         <v>1503</v>
       </c>
       <c r="T145" s="3">
-        <v>78861</v>
+        <v>78851</v>
       </c>
       <c r="U145" s="3">
-        <v>87633</v>
-      </c>
-    </row>
-    <row r="147" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="8" t="s">
+        <v>87623</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" s="24" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>42675</v>
+      </c>
+      <c r="B146" s="3">
+        <v>9799</v>
+      </c>
+      <c r="C146" s="3">
+        <v>2109</v>
+      </c>
+      <c r="D146" s="3">
+        <v>565</v>
+      </c>
+      <c r="E146" s="3">
+        <v>4726</v>
+      </c>
+      <c r="F146" s="3">
+        <v>3395</v>
+      </c>
+      <c r="G146" s="3">
+        <v>651</v>
+      </c>
+      <c r="H146" s="3">
+        <v>5082</v>
+      </c>
+      <c r="I146" s="3">
+        <v>139</v>
+      </c>
+      <c r="J146" s="3">
+        <v>1767</v>
+      </c>
+      <c r="K146" s="3">
+        <v>3640</v>
+      </c>
+      <c r="L146" s="3">
+        <v>4149</v>
+      </c>
+      <c r="M146" s="3">
+        <v>6580</v>
+      </c>
+      <c r="N146" s="3">
+        <v>14560</v>
+      </c>
+      <c r="O146" s="3">
+        <v>21248</v>
+      </c>
+      <c r="P146" s="3">
+        <v>925</v>
+      </c>
+      <c r="Q146" s="3">
+        <v>3869</v>
+      </c>
+      <c r="R146" s="3">
+        <v>4806</v>
+      </c>
+      <c r="S146" s="3">
+        <v>1499</v>
+      </c>
+      <c r="T146" s="3">
+        <v>79709</v>
+      </c>
+      <c r="U146" s="3">
+        <v>89508</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -42886,11 +43166,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F147"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1"/>
+      <pane ySplit="5" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -42899,24 +43179,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -45584,203 +45864,223 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
+      <c r="A138" s="11">
         <v>42370</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="25">
+        <v>1498</v>
+      </c>
+      <c r="C138" s="25">
+        <v>1592</v>
+      </c>
+      <c r="D138" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="25">
+        <v>1352</v>
+      </c>
+      <c r="F138" s="25">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="11">
+        <v>42401</v>
+      </c>
+      <c r="B139" s="25">
+        <v>1497</v>
+      </c>
+      <c r="C139" s="25">
+        <v>1593</v>
+      </c>
+      <c r="D139" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E139" s="25">
+        <v>1336</v>
+      </c>
+      <c r="F139" s="25">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="11">
+        <v>42430</v>
+      </c>
+      <c r="B140" s="25">
+        <v>1471</v>
+      </c>
+      <c r="C140" s="25">
+        <v>1566</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E140" s="25">
+        <v>1322</v>
+      </c>
+      <c r="F140" s="25">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="11">
+        <v>42461</v>
+      </c>
+      <c r="B141" s="25">
+        <v>1461</v>
+      </c>
+      <c r="C141" s="25">
+        <v>1560</v>
+      </c>
+      <c r="D141" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" s="25">
+        <v>1307</v>
+      </c>
+      <c r="F141" s="25">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="11">
+        <v>42491</v>
+      </c>
+      <c r="B142" s="25">
+        <v>1459</v>
+      </c>
+      <c r="C142" s="25">
+        <v>1557</v>
+      </c>
+      <c r="D142" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" s="25">
+        <v>1185</v>
+      </c>
+      <c r="F142" s="25">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="11">
+        <v>42522</v>
+      </c>
+      <c r="B143" s="25">
+        <v>1431</v>
+      </c>
+      <c r="C143" s="25">
+        <v>1527</v>
+      </c>
+      <c r="D143" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E143" s="25">
+        <v>1164</v>
+      </c>
+      <c r="F143" s="25">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="11">
+        <v>42552</v>
+      </c>
+      <c r="B144" s="25">
+        <v>1432</v>
+      </c>
+      <c r="C144" s="25">
+        <v>1522</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E144" s="25">
+        <v>1168</v>
+      </c>
+      <c r="F144" s="25">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="11">
+        <v>42583</v>
+      </c>
+      <c r="B145" s="25">
+        <v>1413</v>
+      </c>
+      <c r="C145" s="25">
+        <v>1507</v>
+      </c>
+      <c r="D145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E145" s="25">
+        <v>957</v>
+      </c>
+      <c r="F145" s="25">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="11">
+        <v>42614</v>
+      </c>
+      <c r="B146" s="25">
+        <v>1421</v>
+      </c>
+      <c r="C146" s="25">
+        <v>1510</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="25">
+        <v>763</v>
+      </c>
+      <c r="F146" s="25">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="11">
+        <v>42644</v>
+      </c>
+      <c r="B147" s="25">
+        <v>1411</v>
+      </c>
+      <c r="C147" s="25">
+        <v>1503</v>
+      </c>
+      <c r="D147" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E147" s="25">
+        <v>86</v>
+      </c>
+      <c r="F147" s="25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="11">
+        <v>42675</v>
+      </c>
+      <c r="B148" s="25">
+        <v>1400</v>
+      </c>
+      <c r="C148" s="25">
         <v>1499</v>
       </c>
-      <c r="C138" s="3">
-        <v>1592</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E138" s="3">
-        <v>1351</v>
-      </c>
-      <c r="F138" s="3">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
-        <v>42401</v>
-      </c>
-      <c r="B139" s="3">
-        <v>1500</v>
-      </c>
-      <c r="C139" s="3">
-        <v>1593</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E139" s="3">
-        <v>1336</v>
-      </c>
-      <c r="F139" s="3">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
-        <v>42430</v>
-      </c>
-      <c r="B140" s="3">
-        <v>1474</v>
-      </c>
-      <c r="C140" s="3">
-        <v>1566</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E140" s="3">
-        <v>1322</v>
-      </c>
-      <c r="F140" s="3">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
-        <v>42461</v>
-      </c>
-      <c r="B141" s="3">
-        <v>1468</v>
-      </c>
-      <c r="C141" s="3">
-        <v>1560</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E141" s="3">
-        <v>1307</v>
-      </c>
-      <c r="F141" s="3">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
-        <v>42491</v>
-      </c>
-      <c r="B142" s="3">
-        <v>1465</v>
-      </c>
-      <c r="C142" s="3">
-        <v>1557</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E142" s="3">
-        <v>1185</v>
-      </c>
-      <c r="F142" s="3">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
-        <v>42522</v>
-      </c>
-      <c r="B143" s="3">
-        <v>1438</v>
-      </c>
-      <c r="C143" s="3">
-        <v>1527</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E143" s="3">
-        <v>1164</v>
-      </c>
-      <c r="F143" s="3">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
-        <v>42552</v>
-      </c>
-      <c r="B144" s="3">
-        <v>1432</v>
-      </c>
-      <c r="C144" s="3">
-        <v>1522</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E144" s="3">
-        <v>1002</v>
-      </c>
-      <c r="F144" s="3">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
-        <v>42583</v>
-      </c>
-      <c r="B145" s="3">
-        <v>1413</v>
-      </c>
-      <c r="C145" s="3">
-        <v>1507</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E145" s="3">
-        <v>708</v>
-      </c>
-      <c r="F145" s="3">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="2">
-        <v>42614</v>
-      </c>
-      <c r="B146" s="3">
-        <v>1421</v>
-      </c>
-      <c r="C146" s="3">
-        <v>1510</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E146" s="3">
-        <v>83</v>
-      </c>
-      <c r="F146" s="3">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="2">
-        <v>42644</v>
-      </c>
-      <c r="B147" s="3">
-        <v>1409</v>
-      </c>
-      <c r="C147" s="3">
-        <v>1503</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F147" s="3">
-        <v>1319</v>
+      <c r="D148" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E148" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F148" s="25">
+        <v>1359</v>
       </c>
     </row>
   </sheetData>
@@ -45798,12 +46098,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:U1"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -45812,15 +46112,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -48882,232 +49182,255 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
+      <c r="A136" s="11">
         <v>42370</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="25">
         <v>76221</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="25">
         <v>81299</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E136" s="3">
-        <v>74288</v>
-      </c>
-      <c r="F136" s="3">
-        <v>81233</v>
-      </c>
-      <c r="G136" s="3">
+      <c r="D136" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E136" s="25">
+        <v>74301</v>
+      </c>
+      <c r="F136" s="25">
+        <v>81133</v>
+      </c>
+      <c r="G136" s="25">
         <v>81800</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
+      <c r="A137" s="11">
         <v>42401</v>
       </c>
-      <c r="B137" s="3">
-        <v>77169</v>
-      </c>
-      <c r="C137" s="3">
+      <c r="B137" s="25">
+        <v>77166</v>
+      </c>
+      <c r="C137" s="25">
         <v>82586</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E137" s="3">
-        <v>74744</v>
-      </c>
-      <c r="F137" s="3">
-        <v>82112</v>
-      </c>
-      <c r="G137" s="3">
+      <c r="D137" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="25">
+        <v>74756</v>
+      </c>
+      <c r="F137" s="25">
+        <v>82274</v>
+      </c>
+      <c r="G137" s="25">
         <v>83400</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
+      <c r="A138" s="11">
         <v>42430</v>
       </c>
-      <c r="B138" s="3">
-        <v>76038</v>
-      </c>
-      <c r="C138" s="3">
+      <c r="B138" s="25">
+        <v>76035</v>
+      </c>
+      <c r="C138" s="25">
         <v>81553</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E138" s="3">
-        <v>74694</v>
-      </c>
-      <c r="F138" s="3">
-        <v>81484</v>
-      </c>
-      <c r="G138" s="3">
+      <c r="D138" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="25">
+        <v>74772</v>
+      </c>
+      <c r="F138" s="25">
+        <v>81546</v>
+      </c>
+      <c r="G138" s="25">
         <v>82400</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
+      <c r="A139" s="11">
         <v>42461</v>
       </c>
-      <c r="B139" s="3">
-        <v>75642</v>
-      </c>
-      <c r="C139" s="3">
+      <c r="B139" s="25">
+        <v>75635</v>
+      </c>
+      <c r="C139" s="25">
         <v>81197</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E139" s="3">
-        <v>73770</v>
-      </c>
-      <c r="F139" s="3">
-        <v>80828</v>
-      </c>
-      <c r="G139" s="3" t="s">
+      <c r="D139" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E139" s="25">
+        <v>73868</v>
+      </c>
+      <c r="F139" s="25">
+        <v>80954</v>
+      </c>
+      <c r="G139" s="25" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
+      <c r="A140" s="11">
         <v>42491</v>
       </c>
-      <c r="B140" s="3">
-        <v>75149</v>
-      </c>
-      <c r="C140" s="3">
+      <c r="B140" s="25">
+        <v>75142</v>
+      </c>
+      <c r="C140" s="25">
         <v>80946</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E140" s="3">
-        <v>73156</v>
-      </c>
-      <c r="F140" s="3">
-        <v>80381</v>
-      </c>
-      <c r="G140" s="3" t="s">
+      <c r="D140" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E140" s="25">
+        <v>73275</v>
+      </c>
+      <c r="F140" s="25">
+        <v>80317</v>
+      </c>
+      <c r="G140" s="25" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
+      <c r="A141" s="11">
         <v>42522</v>
       </c>
-      <c r="B141" s="3">
-        <v>74556</v>
-      </c>
-      <c r="C141" s="3">
+      <c r="B141" s="25">
+        <v>74549</v>
+      </c>
+      <c r="C141" s="25">
         <v>80039</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E141" s="3">
-        <v>73244</v>
-      </c>
-      <c r="F141" s="3">
-        <v>79710</v>
-      </c>
-      <c r="G141" s="3" t="s">
+      <c r="D141" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" s="25">
+        <v>73329</v>
+      </c>
+      <c r="F141" s="25">
+        <v>79880</v>
+      </c>
+      <c r="G141" s="25" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
+      <c r="A142" s="11">
         <v>42552</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="25">
         <v>73868</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="25">
         <v>79690</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E142" s="3">
-        <v>67784</v>
-      </c>
-      <c r="F142" s="3">
-        <v>79984</v>
-      </c>
-      <c r="G142" s="3" t="s">
+      <c r="D142" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" s="25">
+        <v>68451</v>
+      </c>
+      <c r="F142" s="25">
+        <v>79584</v>
+      </c>
+      <c r="G142" s="25" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
+      <c r="A143" s="11">
         <v>42583</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="25">
         <v>74921</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="25">
         <v>80378</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E143" s="3">
-        <v>62231</v>
-      </c>
-      <c r="F143" s="3">
-        <v>80966</v>
-      </c>
-      <c r="G143" s="3" t="s">
+      <c r="D143" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E143" s="25">
+        <v>68500</v>
+      </c>
+      <c r="F143" s="25">
+        <v>79954</v>
+      </c>
+      <c r="G143" s="25" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
+      <c r="A144" s="11">
         <v>42614</v>
       </c>
-      <c r="B144" s="3">
-        <v>74261</v>
-      </c>
-      <c r="C144" s="3">
-        <v>79719</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E144" s="3">
-        <v>39082</v>
-      </c>
-      <c r="F144" s="3">
-        <v>80233</v>
-      </c>
-      <c r="G144" s="3" t="s">
+      <c r="B144" s="25">
+        <v>74263</v>
+      </c>
+      <c r="C144" s="25">
+        <v>79688</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E144" s="25">
+        <v>59793</v>
+      </c>
+      <c r="F144" s="25">
+        <v>79571</v>
+      </c>
+      <c r="G144" s="25" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
+      <c r="A145" s="11">
         <v>42644</v>
       </c>
-      <c r="B145" s="3">
-        <v>73497</v>
-      </c>
-      <c r="C145" s="3">
-        <v>78861</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="B145" s="25">
+        <v>73529</v>
+      </c>
+      <c r="C145" s="25">
+        <v>78851</v>
+      </c>
+      <c r="D145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E145" s="25">
+        <v>39294</v>
+      </c>
+      <c r="F145" s="25">
+        <v>78737</v>
+      </c>
+      <c r="G145" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="11">
+        <v>42675</v>
+      </c>
+      <c r="B146" s="25">
+        <v>74377</v>
+      </c>
+      <c r="C146" s="25">
+        <v>79709</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -49125,9 +49448,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -49868,567 +50193,623 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="11">
         <v>42370</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="12">
         <v>1E-3</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="12">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="12">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="12">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="12">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="12">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="12">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="12">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="12">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="12">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="12">
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="12">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="12">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="12">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="12">
         <v>1.23E-2</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="12">
         <v>1.9E-3</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17" s="11">
         <v>42401</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="12">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="12">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="12">
         <v>7.6E-3</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="12">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="12">
         <v>0.01</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="12">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="12">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="12">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="12">
         <v>6.3E-3</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="12">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="12">
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="12">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="12">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="12">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="12">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="12">
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="11">
         <v>42430</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="12">
         <v>1E-3</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="12">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="12">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="12">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="12">
         <v>1.03E-2</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="12">
         <v>7.6E-3</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="12">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="12">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="12">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="12">
         <v>1.06E-2</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="12">
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="12">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="12">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="12">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="12">
         <v>1.52E-2</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="12">
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="11">
         <v>42461</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="12">
         <v>1E-3</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="12">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="12">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="12">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="12">
         <v>1.01E-2</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="12">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="12">
         <v>5.3E-3</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="12">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="12">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="12">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="12">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="12">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="12">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="12">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="12">
         <v>1.38E-2</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="12">
         <v>1.8E-3</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="11">
         <v>42491</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="12">
         <v>1.5E-3</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="12">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="12">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="12">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="12">
         <v>1.2E-2</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="12">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="12">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="12">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="12">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="12">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="12">
         <v>1.23E-2</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="12">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="12">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="12">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="12">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="12">
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="11">
         <v>42522</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="12">
         <v>1.4E-3</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="12">
         <v>6.3E-3</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="12">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="12">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="12">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="12">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="12">
         <v>3.8E-3</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="12">
         <v>5.3E-3</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="12">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="12">
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="12">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="12">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="12">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="12">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="12">
         <v>1.9E-3</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="11">
         <v>42552</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="12">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="12">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="12">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="12">
         <v>6.6E-3</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="12">
         <v>1.2E-2</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="12">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="12">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="12">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="12">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="12">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="12">
         <v>1.49E-2</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="12">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="12">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="12">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="12">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="11">
         <v>42583</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="12">
         <v>1.8E-3</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="12">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="12">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="12">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="12">
         <v>1.23E-2</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="12">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="12">
         <v>1.03E-2</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="12">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="12">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="12">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="12">
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="12">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="12">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="12">
         <v>3.8E-3</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23" s="12">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="12">
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="11">
         <v>42614</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="12">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="C24" s="12">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="D24" s="12">
+        <v>7.6E-3</v>
+      </c>
+      <c r="E24" s="12">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="F24" s="12">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G24" s="12">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="H24" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I24" s="12">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="J24" s="12">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="K24" s="12">
+        <v>1.14E-2</v>
+      </c>
+      <c r="L24" s="12">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="12">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="O24" s="12">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="P24" s="12">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="R24" s="12">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>42644</v>
+      </c>
+      <c r="B25" s="12">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="C25" s="12">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="D25" s="12">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="E25" s="12">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="F25" s="12">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="G25" s="12">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="H25" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I25" s="12">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="J25" s="12">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="K25" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L25" s="12">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="12">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="O25" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P25" s="12">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>1.21E-2</v>
+      </c>
+      <c r="R25" s="12">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="24" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>42675</v>
+      </c>
+      <c r="B26" s="12">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C26" s="12">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="D26" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E26" s="12">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="F26" s="12">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="G26" s="12">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="H26" s="12">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="I26" s="12">
+        <v>6.3E-3</v>
+      </c>
+      <c r="J26" s="12">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="K26" s="12">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="L26" s="12">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N26" s="12">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="O26" s="12">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="P26" s="12">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>1.35E-2</v>
+      </c>
+      <c r="R26" s="12">
         <v>1.9E-3</v>
       </c>
-      <c r="C24" s="6">
-        <v>7.6E-3</v>
-      </c>
-      <c r="D24" s="6">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="E24" s="6">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1.2699999999999999E-2</v>
-      </c>
-      <c r="G24" s="6">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="H24" s="6">
-        <v>5.3E-3</v>
-      </c>
-      <c r="I24" s="6">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="J24" s="6">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="K24" s="6">
-        <v>1.14E-2</v>
-      </c>
-      <c r="L24" s="6">
-        <v>1.49E-2</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="N24" s="6">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="O24" s="6">
-        <v>3.3999999999999998E-3</v>
-      </c>
-      <c r="P24" s="6">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="R24" s="6">
-        <v>1.4E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>42644</v>
-      </c>
-      <c r="B25" s="6">
-        <v>1.9E-3</v>
-      </c>
-      <c r="C25" s="6">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="D25" s="6">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="E25" s="6">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1.29E-2</v>
-      </c>
-      <c r="G25" s="6">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="H25" s="6">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="I25" s="6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J25" s="6">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="K25" s="6">
-        <v>1.2E-2</v>
-      </c>
-      <c r="L25" s="6">
-        <v>1.5299999999999999E-2</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="6">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="O25" s="6">
-        <v>3.3E-3</v>
-      </c>
-      <c r="P25" s="6">
-        <v>5.3E-3</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>1.21E-2</v>
-      </c>
-      <c r="R25" s="6">
-        <v>1.4E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+    </row>
+    <row r="28" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>90</v>
       </c>
     </row>
@@ -50446,10 +50827,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -50458,25 +50839,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -51659,37 +52040,37 @@
         <v>42614</v>
       </c>
       <c r="B24" s="6">
-        <v>0.96989999999999998</v>
+        <v>0.96950000000000003</v>
       </c>
       <c r="C24" s="6">
-        <v>0.94069999999999998</v>
+        <v>0.9405</v>
       </c>
       <c r="D24" s="6">
-        <v>0.94930000000000003</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="E24" s="6">
-        <v>0.97389999999999999</v>
+        <v>0.97440000000000004</v>
       </c>
       <c r="F24" s="6">
-        <v>0.79259999999999997</v>
+        <v>0.7923</v>
       </c>
       <c r="G24" s="6">
-        <v>0.95689999999999997</v>
+        <v>0.95740000000000003</v>
       </c>
       <c r="H24" s="6">
-        <v>0.90059999999999996</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="I24" s="6">
-        <v>0.95440000000000003</v>
+        <v>0.95520000000000005</v>
       </c>
       <c r="J24" s="6">
-        <v>0.93300000000000005</v>
+        <v>0.93410000000000004</v>
       </c>
       <c r="K24" s="6">
         <v>0.96299999999999997</v>
       </c>
       <c r="L24" s="6">
-        <v>0.87219999999999998</v>
+        <v>0.87670000000000003</v>
       </c>
       <c r="M24" s="6">
         <v>0.94140000000000001</v>
@@ -51698,16 +52079,16 @@
         <v>0.95709999999999995</v>
       </c>
       <c r="O24" s="6">
-        <v>0.89980000000000004</v>
+        <v>0.89949999999999997</v>
       </c>
       <c r="P24" s="6">
-        <v>0.92320000000000002</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="Q24" s="6">
         <v>0.93679999999999997</v>
       </c>
       <c r="R24" s="6">
-        <v>0.97070000000000001</v>
+        <v>0.97089999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -51715,37 +52096,37 @@
         <v>42644</v>
       </c>
       <c r="B25" s="6">
-        <v>0.96989999999999998</v>
+        <v>0.96950000000000003</v>
       </c>
       <c r="C25" s="6">
-        <v>0.94069999999999998</v>
+        <v>0.9405</v>
       </c>
       <c r="D25" s="6">
-        <v>0.94889999999999997</v>
+        <v>0.94869999999999999</v>
       </c>
       <c r="E25" s="6">
-        <v>0.97399999999999998</v>
+        <v>0.97430000000000005</v>
       </c>
       <c r="F25" s="6">
-        <v>0.79259999999999997</v>
+        <v>0.7923</v>
       </c>
       <c r="G25" s="6">
-        <v>0.95630000000000004</v>
+        <v>0.95689999999999997</v>
       </c>
       <c r="H25" s="6">
-        <v>0.9012</v>
+        <v>0.90369999999999995</v>
       </c>
       <c r="I25" s="6">
-        <v>0.95440000000000003</v>
+        <v>0.95520000000000005</v>
       </c>
       <c r="J25" s="6">
-        <v>0.93300000000000005</v>
+        <v>0.93410000000000004</v>
       </c>
       <c r="K25" s="6">
         <v>0.96099999999999997</v>
       </c>
       <c r="L25" s="6">
-        <v>0.87219999999999998</v>
+        <v>0.87670000000000003</v>
       </c>
       <c r="M25" s="6">
         <v>0.94140000000000001</v>
@@ -51754,20 +52135,76 @@
         <v>0.95689999999999997</v>
       </c>
       <c r="O25" s="6">
-        <v>0.90310000000000001</v>
+        <v>0.90290000000000004</v>
       </c>
       <c r="P25" s="6">
-        <v>0.92320000000000002</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="Q25" s="6">
         <v>0.93330000000000002</v>
       </c>
       <c r="R25" s="6">
-        <v>0.97070000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+        <v>0.97089999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="24" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>42675</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.96950000000000003</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.9405</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.9486</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.79979999999999996</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.95520000000000005</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.93459999999999999</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.95879999999999999</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0.85909999999999997</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0.95679999999999998</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0.90810000000000002</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0.9204</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0.93289999999999995</v>
+      </c>
+      <c r="R26" s="6">
+        <v>0.97330000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>93</v>
       </c>
     </row>
@@ -51785,10 +52222,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -51797,25 +52234,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
     </row>
     <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -52433,17 +52870,73 @@
         <v>0.94830000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+    <row r="14" spans="1:18" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>42675</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.96160000000000001</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.998</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="R14" s="12">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -52458,12 +52951,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:U1"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -52472,15 +52965,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -55584,7 +56077,7 @@
         <v>2471</v>
       </c>
       <c r="G137" s="3">
-        <v>2470</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -55630,7 +56123,7 @@
         <v>2350</v>
       </c>
       <c r="G139" s="3">
-        <v>2349</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -55676,7 +56169,7 @@
         <v>2236</v>
       </c>
       <c r="G141" s="3">
-        <v>2235</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -55699,7 +56192,7 @@
         <v>2194</v>
       </c>
       <c r="G142" s="3">
-        <v>2193</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -55715,14 +56208,14 @@
       <c r="D143" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E143" s="3" t="s">
-        <v>91</v>
+      <c r="E143" s="3">
+        <v>2132</v>
       </c>
       <c r="F143" s="3">
         <v>2159</v>
       </c>
       <c r="G143" s="3">
-        <v>2156</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -55733,7 +56226,7 @@
         <v>2075</v>
       </c>
       <c r="C144" s="3">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>91</v>
@@ -55745,7 +56238,7 @@
         <v>1454</v>
       </c>
       <c r="G144" s="3">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -55756,7 +56249,7 @@
         <v>2061</v>
       </c>
       <c r="C145" s="3">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>91</v>
@@ -55767,7 +56260,30 @@
       <c r="F145" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G145" s="3" t="s">
+      <c r="G145" s="3">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>42675</v>
+      </c>
+      <c r="B146" s="3">
+        <v>2045</v>
+      </c>
+      <c r="C146" s="3">
+        <v>2109</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -55776,7 +56292,7 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -55785,12 +56301,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:U1"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -55799,26 +56315,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="4" spans="1:7" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -58880,232 +59396,255 @@
       </c>
     </row>
     <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
+      <c r="A137" s="11">
         <v>42370</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="25">
         <v>564</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="25">
         <v>604</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E137" s="3">
+      <c r="D137" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="25">
         <v>574</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137" s="25">
         <v>564</v>
       </c>
-      <c r="G137" s="3">
-        <v>609</v>
+      <c r="G137" s="25">
+        <v>622</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
+      <c r="A138" s="11">
         <v>42401</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="25">
         <v>551</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="25">
         <v>590</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E138" s="3">
+      <c r="D138" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="25">
         <v>567</v>
       </c>
-      <c r="F138" s="3">
+      <c r="F138" s="25">
         <v>555</v>
       </c>
-      <c r="G138" s="3">
-        <v>601</v>
+      <c r="G138" s="25">
+        <v>615</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
+      <c r="A139" s="11">
         <v>42430</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="25">
         <v>549</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="25">
         <v>586</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E139" s="3">
+      <c r="D139" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E139" s="25">
         <v>557</v>
       </c>
-      <c r="F139" s="3">
+      <c r="F139" s="25">
         <v>549</v>
       </c>
-      <c r="G139" s="3">
-        <v>594</v>
+      <c r="G139" s="25">
+        <v>605</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
+      <c r="A140" s="11">
         <v>42461</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="25">
         <v>551</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="25">
         <v>587</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E140" s="3">
+      <c r="D140" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E140" s="25">
         <v>532</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="25">
         <v>521</v>
       </c>
-      <c r="G140" s="3">
+      <c r="G140" s="25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="11">
+        <v>42491</v>
+      </c>
+      <c r="B141" s="25">
+        <v>548</v>
+      </c>
+      <c r="C141" s="25">
+        <v>583</v>
+      </c>
+      <c r="D141" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" s="25">
+        <v>571</v>
+      </c>
+      <c r="F141" s="25">
+        <v>561</v>
+      </c>
+      <c r="G141" s="25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="11">
+        <v>42522</v>
+      </c>
+      <c r="B142" s="25">
+        <v>540</v>
+      </c>
+      <c r="C142" s="25">
+        <v>574</v>
+      </c>
+      <c r="D142" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" s="25">
+        <v>547</v>
+      </c>
+      <c r="F142" s="25">
+        <v>539</v>
+      </c>
+      <c r="G142" s="25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="11">
+        <v>42552</v>
+      </c>
+      <c r="B143" s="25">
+        <v>533</v>
+      </c>
+      <c r="C143" s="25">
+        <v>567</v>
+      </c>
+      <c r="D143" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E143" s="25">
+        <v>549</v>
+      </c>
+      <c r="F143" s="25">
+        <v>543</v>
+      </c>
+      <c r="G143" s="25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="11">
+        <v>42583</v>
+      </c>
+      <c r="B144" s="25">
+        <v>541</v>
+      </c>
+      <c r="C144" s="25">
+        <v>575</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E144" s="25">
+        <v>546</v>
+      </c>
+      <c r="F144" s="25">
+        <v>537</v>
+      </c>
+      <c r="G144" s="25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="11">
+        <v>42614</v>
+      </c>
+      <c r="B145" s="25">
+        <v>538</v>
+      </c>
+      <c r="C145" s="25">
+        <v>572</v>
+      </c>
+      <c r="D145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E145" s="25">
+        <v>533</v>
+      </c>
+      <c r="F145" s="25">
+        <v>454</v>
+      </c>
+      <c r="G145" s="25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="11">
+        <v>42644</v>
+      </c>
+      <c r="B146" s="25">
+        <v>534</v>
+      </c>
+      <c r="C146" s="25">
+        <v>568</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="25">
+        <v>453</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" s="25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="11">
+        <v>42675</v>
+      </c>
+      <c r="B147" s="25">
+        <v>532</v>
+      </c>
+      <c r="C147" s="25">
         <v>565</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
-        <v>42491</v>
-      </c>
-      <c r="B141" s="3">
-        <v>548</v>
-      </c>
-      <c r="C141" s="3">
-        <v>583</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E141" s="3">
-        <v>571</v>
-      </c>
-      <c r="F141" s="3">
-        <v>561</v>
-      </c>
-      <c r="G141" s="3">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
-        <v>42522</v>
-      </c>
-      <c r="B142" s="3">
-        <v>540</v>
-      </c>
-      <c r="C142" s="3">
-        <v>574</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E142" s="3">
-        <v>547</v>
-      </c>
-      <c r="F142" s="3">
-        <v>539</v>
-      </c>
-      <c r="G142" s="3">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
-        <v>42552</v>
-      </c>
-      <c r="B143" s="3">
-        <v>533</v>
-      </c>
-      <c r="C143" s="3">
-        <v>567</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E143" s="3">
-        <v>549</v>
-      </c>
-      <c r="F143" s="3">
-        <v>542</v>
-      </c>
-      <c r="G143" s="3">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
-        <v>42583</v>
-      </c>
-      <c r="B144" s="3">
-        <v>541</v>
-      </c>
-      <c r="C144" s="3">
-        <v>575</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E144" s="3">
-        <v>546</v>
-      </c>
-      <c r="F144" s="3">
-        <v>471</v>
-      </c>
-      <c r="G144" s="3">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
-        <v>42614</v>
-      </c>
-      <c r="B145" s="3">
-        <v>538</v>
-      </c>
-      <c r="C145" s="3">
-        <v>572</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E145" s="3">
-        <v>457</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G145" s="3">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="2">
-        <v>42644</v>
-      </c>
-      <c r="B146" s="3">
-        <v>534</v>
-      </c>
-      <c r="C146" s="3">
-        <v>567</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G146" s="3" t="s">
+      <c r="D147" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E147" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F147" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G147" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -59124,12 +59663,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:U1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -59138,15 +59677,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -62208,232 +62747,255 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
+      <c r="A136" s="11">
         <v>42370</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="25">
         <v>4377</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="25">
         <v>4633</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E136" s="3">
+      <c r="D136" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E136" s="25">
         <v>4645</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F136" s="25">
+        <v>4670</v>
+      </c>
+      <c r="G136" s="25">
         <v>4646</v>
       </c>
-      <c r="G136" s="3">
+    </row>
+    <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="11">
+        <v>42401</v>
+      </c>
+      <c r="B137" s="25">
+        <v>4400</v>
+      </c>
+      <c r="C137" s="25">
+        <v>4632</v>
+      </c>
+      <c r="D137" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="25">
+        <v>4592</v>
+      </c>
+      <c r="F137" s="25">
+        <v>4623</v>
+      </c>
+      <c r="G137" s="25">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="11">
+        <v>42430</v>
+      </c>
+      <c r="B138" s="25">
+        <v>4396</v>
+      </c>
+      <c r="C138" s="25">
+        <v>4633</v>
+      </c>
+      <c r="D138" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="25">
+        <v>4571</v>
+      </c>
+      <c r="F138" s="25">
+        <v>4615</v>
+      </c>
+      <c r="G138" s="25">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="11">
+        <v>42461</v>
+      </c>
+      <c r="B139" s="25">
+        <v>4421</v>
+      </c>
+      <c r="C139" s="25">
+        <v>4665</v>
+      </c>
+      <c r="D139" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E139" s="25">
+        <v>4607</v>
+      </c>
+      <c r="F139" s="25">
+        <v>4635</v>
+      </c>
+      <c r="G139" s="25">
+        <v>4615</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="11">
+        <v>42491</v>
+      </c>
+      <c r="B140" s="25">
+        <v>4422</v>
+      </c>
+      <c r="C140" s="25">
+        <v>4666</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E140" s="25">
+        <v>4593</v>
+      </c>
+      <c r="F140" s="25">
+        <v>4622</v>
+      </c>
+      <c r="G140" s="25">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="11">
+        <v>42522</v>
+      </c>
+      <c r="B141" s="25">
+        <v>4314</v>
+      </c>
+      <c r="C141" s="25">
+        <v>4560</v>
+      </c>
+      <c r="D141" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" s="25">
+        <v>4603</v>
+      </c>
+      <c r="F141" s="25">
+        <v>4522</v>
+      </c>
+      <c r="G141" s="25">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="11">
+        <v>42552</v>
+      </c>
+      <c r="B142" s="25">
+        <v>4374</v>
+      </c>
+      <c r="C142" s="25">
+        <v>4604</v>
+      </c>
+      <c r="D142" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" s="25">
+        <v>4429</v>
+      </c>
+      <c r="F142" s="25">
+        <v>4494</v>
+      </c>
+      <c r="G142" s="25">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="11">
+        <v>42583</v>
+      </c>
+      <c r="B143" s="25">
+        <v>4471</v>
+      </c>
+      <c r="C143" s="25">
+        <v>4710</v>
+      </c>
+      <c r="D143" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E143" s="25">
+        <v>4429</v>
+      </c>
+      <c r="F143" s="25">
         <v>4637</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
-        <v>42401</v>
-      </c>
-      <c r="B137" s="3">
-        <v>4400</v>
-      </c>
-      <c r="C137" s="3">
-        <v>4632</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E137" s="3">
-        <v>4592</v>
-      </c>
-      <c r="F137" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G137" s="3">
-        <v>4587</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
-        <v>42430</v>
-      </c>
-      <c r="B138" s="3">
-        <v>4396</v>
-      </c>
-      <c r="C138" s="3">
-        <v>4633</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E138" s="3">
-        <v>4571</v>
-      </c>
-      <c r="F138" s="3">
-        <v>4589</v>
-      </c>
-      <c r="G138" s="3">
-        <v>4565</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
-        <v>42461</v>
-      </c>
-      <c r="B139" s="3">
-        <v>4421</v>
-      </c>
-      <c r="C139" s="3">
-        <v>4665</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E139" s="3">
-        <v>4607</v>
-      </c>
-      <c r="F139" s="3">
-        <v>4615</v>
-      </c>
-      <c r="G139" s="3">
-        <v>4604</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
-        <v>42491</v>
-      </c>
-      <c r="B140" s="3">
-        <v>4422</v>
-      </c>
-      <c r="C140" s="3">
-        <v>4666</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E140" s="3">
-        <v>4593</v>
-      </c>
-      <c r="F140" s="3">
-        <v>4599</v>
-      </c>
-      <c r="G140" s="3">
-        <v>4591</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
-        <v>42522</v>
-      </c>
-      <c r="B141" s="3">
-        <v>4314</v>
-      </c>
-      <c r="C141" s="3">
-        <v>4560</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E141" s="3">
-        <v>4603</v>
-      </c>
-      <c r="F141" s="3">
-        <v>4614</v>
-      </c>
-      <c r="G141" s="3">
-        <v>4604</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
-        <v>42552</v>
-      </c>
-      <c r="B142" s="3">
-        <v>4374</v>
-      </c>
-      <c r="C142" s="3">
-        <v>4604</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E142" s="3">
-        <v>4429</v>
-      </c>
-      <c r="F142" s="3">
-        <v>4477</v>
-      </c>
-      <c r="G142" s="3">
-        <v>4574</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
-        <v>42583</v>
-      </c>
-      <c r="B143" s="3">
-        <v>4471</v>
-      </c>
-      <c r="C143" s="3">
-        <v>4710</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E143" s="3">
-        <v>4429</v>
-      </c>
-      <c r="F143" s="3">
-        <v>4420</v>
-      </c>
-      <c r="G143" s="3">
-        <v>4668</v>
+      <c r="G143" s="25">
+        <v>4640</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
+      <c r="A144" s="11">
         <v>42614</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="25">
         <v>4434</v>
       </c>
-      <c r="C144" s="3">
-        <v>4671</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F144" s="3">
-        <v>3274</v>
-      </c>
-      <c r="G144" s="3">
-        <v>4634</v>
+      <c r="C144" s="25">
+        <v>4673</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F144" s="25">
+        <v>4596</v>
+      </c>
+      <c r="G144" s="25">
+        <v>4601</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
+      <c r="A145" s="11">
         <v>42644</v>
       </c>
-      <c r="B145" s="3">
-        <v>4458</v>
-      </c>
-      <c r="C145" s="3">
-        <v>4698</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="B145" s="25">
+        <v>4464</v>
+      </c>
+      <c r="C145" s="25">
+        <v>4706</v>
+      </c>
+      <c r="D145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F145" s="25">
+        <v>4371</v>
+      </c>
+      <c r="G145" s="25">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="11">
+        <v>42675</v>
+      </c>
+      <c r="B146" s="25">
+        <v>4484</v>
+      </c>
+      <c r="C146" s="25">
+        <v>4726</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -62451,12 +63013,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:U1"/>
-      <selection pane="bottomLeft" activeCell="K133" sqref="K133"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -62465,15 +63027,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -65535,232 +66097,255 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
+      <c r="A136" s="11">
         <v>42370</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="25">
         <v>3437</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="25">
         <v>3508</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E136" s="3">
-        <v>3489</v>
-      </c>
-      <c r="F136" s="3">
-        <v>3432</v>
-      </c>
-      <c r="G136" s="3">
-        <v>3794</v>
+      <c r="D136" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E136" s="25">
+        <v>3491</v>
+      </c>
+      <c r="F136" s="25">
+        <v>3431</v>
+      </c>
+      <c r="G136" s="25">
+        <v>3625</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
+      <c r="A137" s="11">
         <v>42401</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="25">
         <v>3374</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="25">
         <v>3487</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E137" s="3">
-        <v>3453</v>
-      </c>
-      <c r="F137" s="3">
+      <c r="D137" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="25">
+        <v>3456</v>
+      </c>
+      <c r="F137" s="25">
         <v>3396</v>
       </c>
-      <c r="G137" s="3">
-        <v>3749</v>
+      <c r="G137" s="25">
+        <v>3594</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
+      <c r="A138" s="11">
         <v>42430</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="25">
         <v>3455</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="25">
         <v>3591</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E138" s="3">
-        <v>3561</v>
-      </c>
-      <c r="F138" s="3">
+      <c r="D138" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="25">
+        <v>3566</v>
+      </c>
+      <c r="F138" s="25">
         <v>3501</v>
       </c>
-      <c r="G138" s="3">
-        <v>3851</v>
+      <c r="G138" s="25">
+        <v>3697</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
+      <c r="A139" s="11">
         <v>42461</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="25">
         <v>3267</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="25">
         <v>3396</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E139" s="3">
+      <c r="D139" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E139" s="25">
         <v>3364</v>
       </c>
-      <c r="F139" s="3">
+      <c r="F139" s="25">
         <v>3307</v>
       </c>
-      <c r="G139" s="3">
-        <v>3649</v>
+      <c r="G139" s="25">
+        <v>3478</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
+      <c r="A140" s="11">
         <v>42491</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="25">
         <v>3449</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="25">
         <v>3549</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E140" s="3">
-        <v>3534</v>
-      </c>
-      <c r="F140" s="3">
+      <c r="D140" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E140" s="25">
+        <v>3540</v>
+      </c>
+      <c r="F140" s="25">
         <v>3473</v>
       </c>
-      <c r="G140" s="3">
-        <v>3811</v>
+      <c r="G140" s="25">
+        <v>3656</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
+      <c r="A141" s="11">
         <v>42522</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="25">
         <v>3124</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="25">
         <v>3211</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E141" s="3">
+      <c r="D141" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" s="25">
+        <v>3232</v>
+      </c>
+      <c r="F141" s="25">
+        <v>3174</v>
+      </c>
+      <c r="G141" s="25">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="11">
+        <v>42552</v>
+      </c>
+      <c r="B142" s="25">
+        <v>3140</v>
+      </c>
+      <c r="C142" s="25">
+        <v>3224</v>
+      </c>
+      <c r="D142" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" s="25">
+        <v>3288</v>
+      </c>
+      <c r="F142" s="25">
+        <v>3269</v>
+      </c>
+      <c r="G142" s="25">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="11">
+        <v>42583</v>
+      </c>
+      <c r="B143" s="25">
+        <v>3319</v>
+      </c>
+      <c r="C143" s="25">
+        <v>3408</v>
+      </c>
+      <c r="D143" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E143" s="25">
+        <v>3288</v>
+      </c>
+      <c r="F143" s="25">
+        <v>3252</v>
+      </c>
+      <c r="G143" s="25">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="11">
+        <v>42614</v>
+      </c>
+      <c r="B144" s="25">
+        <v>3147</v>
+      </c>
+      <c r="C144" s="25">
         <v>3230</v>
       </c>
-      <c r="F141" s="3">
-        <v>3172</v>
-      </c>
-      <c r="G141" s="3">
-        <v>3502</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
-        <v>42552</v>
-      </c>
-      <c r="B142" s="3">
-        <v>3140</v>
-      </c>
-      <c r="C142" s="3">
-        <v>3224</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E142" s="3">
-        <v>3325</v>
-      </c>
-      <c r="F142" s="3">
-        <v>3264</v>
-      </c>
-      <c r="G142" s="3">
-        <v>3823</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
-        <v>42583</v>
-      </c>
-      <c r="B143" s="3">
-        <v>3319</v>
-      </c>
-      <c r="C143" s="3">
-        <v>3408</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E143" s="3">
-        <v>3308</v>
-      </c>
-      <c r="F143" s="3">
-        <v>3177</v>
-      </c>
-      <c r="G143" s="3">
-        <v>3999</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
-        <v>42614</v>
-      </c>
-      <c r="B144" s="3">
-        <v>3127</v>
-      </c>
-      <c r="C144" s="3">
-        <v>3211</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E144" s="3">
-        <v>3106</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G144" s="3">
-        <v>3983</v>
+      <c r="D144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E144" s="25">
+        <v>3192</v>
+      </c>
+      <c r="F144" s="25">
+        <v>3054</v>
+      </c>
+      <c r="G144" s="25">
+        <v>3724</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
+      <c r="A145" s="11">
         <v>42644</v>
       </c>
-      <c r="B145" s="3">
-        <v>3187</v>
-      </c>
-      <c r="C145" s="3">
-        <v>3272</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="B145" s="25">
+        <v>3254</v>
+      </c>
+      <c r="C145" s="25">
+        <v>3340</v>
+      </c>
+      <c r="D145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E145" s="25">
+        <v>3245</v>
+      </c>
+      <c r="F145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G145" s="25">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="11">
+        <v>42675</v>
+      </c>
+      <c r="B146" s="25">
+        <v>3324</v>
+      </c>
+      <c r="C146" s="25">
+        <v>3395</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -65778,12 +66363,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:U1"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -65792,15 +66377,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -68862,232 +69447,255 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
+      <c r="A136" s="11">
         <v>42370</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="25">
         <v>617</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="25">
         <v>727</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E136" s="3">
+      <c r="D136" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E136" s="25">
         <v>693</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F136" s="25">
         <v>693</v>
       </c>
-      <c r="G136" s="3">
+      <c r="G136" s="25">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="11">
+        <v>42401</v>
+      </c>
+      <c r="B137" s="25">
+        <v>612</v>
+      </c>
+      <c r="C137" s="25">
+        <v>720</v>
+      </c>
+      <c r="D137" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="25">
+        <v>689</v>
+      </c>
+      <c r="F137" s="25">
+        <v>689</v>
+      </c>
+      <c r="G137" s="25">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="11">
+        <v>42430</v>
+      </c>
+      <c r="B138" s="25">
+        <v>607</v>
+      </c>
+      <c r="C138" s="25">
+        <v>713</v>
+      </c>
+      <c r="D138" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="25">
+        <v>689</v>
+      </c>
+      <c r="F138" s="25">
+        <v>689</v>
+      </c>
+      <c r="G138" s="25">
         <v>693</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
-        <v>42401</v>
-      </c>
-      <c r="B137" s="3">
-        <v>612</v>
-      </c>
-      <c r="C137" s="3">
-        <v>720</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E137" s="3">
-        <v>689</v>
-      </c>
-      <c r="F137" s="3">
-        <v>689</v>
-      </c>
-      <c r="G137" s="3">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
-        <v>42430</v>
-      </c>
-      <c r="B138" s="3">
-        <v>607</v>
-      </c>
-      <c r="C138" s="3">
-        <v>713</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E138" s="3">
-        <v>689</v>
-      </c>
-      <c r="F138" s="3">
-        <v>689</v>
-      </c>
-      <c r="G138" s="3">
-        <v>689</v>
-      </c>
-    </row>
     <row r="139" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
+      <c r="A139" s="11">
         <v>42461</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="25">
         <v>602</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="25">
         <v>706</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E139" s="3">
+      <c r="D139" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E139" s="25">
         <v>677</v>
       </c>
-      <c r="F139" s="3">
+      <c r="F139" s="25">
         <v>677</v>
       </c>
-      <c r="G139" s="3">
-        <v>677</v>
+      <c r="G139" s="25">
+        <v>668</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
+      <c r="A140" s="11">
         <v>42491</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="25">
         <v>562</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="25">
         <v>697</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E140" s="3">
-        <v>673</v>
-      </c>
-      <c r="F140" s="3">
-        <v>673</v>
-      </c>
-      <c r="G140" s="3">
-        <v>673</v>
+      <c r="D140" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E140" s="25">
+        <v>674</v>
+      </c>
+      <c r="F140" s="25">
+        <v>674</v>
+      </c>
+      <c r="G140" s="25">
+        <v>669</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
+      <c r="A141" s="11">
         <v>42522</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="25">
         <v>551</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="25">
         <v>684</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E141" s="3">
-        <v>653</v>
-      </c>
-      <c r="F141" s="3">
-        <v>653</v>
-      </c>
-      <c r="G141" s="3">
+      <c r="D141" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" s="25">
+        <v>658</v>
+      </c>
+      <c r="F141" s="25">
+        <v>658</v>
+      </c>
+      <c r="G141" s="25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="11">
+        <v>42552</v>
+      </c>
+      <c r="B142" s="25">
+        <v>541</v>
+      </c>
+      <c r="C142" s="25">
+        <v>678</v>
+      </c>
+      <c r="D142" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" s="25">
+        <v>661</v>
+      </c>
+      <c r="F142" s="25">
+        <v>661</v>
+      </c>
+      <c r="G142" s="25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="11">
+        <v>42583</v>
+      </c>
+      <c r="B143" s="25">
+        <v>528</v>
+      </c>
+      <c r="C143" s="25">
+        <v>666</v>
+      </c>
+      <c r="D143" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E143" s="25">
+        <v>654</v>
+      </c>
+      <c r="F143" s="25">
+        <v>654</v>
+      </c>
+      <c r="G143" s="25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="11">
+        <v>42614</v>
+      </c>
+      <c r="B144" s="25">
+        <v>525</v>
+      </c>
+      <c r="C144" s="25">
+        <v>662</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E144" s="25">
+        <v>692</v>
+      </c>
+      <c r="F144" s="25">
+        <v>692</v>
+      </c>
+      <c r="G144" s="25">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="11">
+        <v>42644</v>
+      </c>
+      <c r="B145" s="25">
+        <v>517</v>
+      </c>
+      <c r="C145" s="25">
         <v>652</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
-        <v>42552</v>
-      </c>
-      <c r="B142" s="3">
-        <v>541</v>
-      </c>
-      <c r="C142" s="3">
-        <v>678</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E142" s="3">
-        <v>661</v>
-      </c>
-      <c r="F142" s="3">
-        <v>661</v>
-      </c>
-      <c r="G142" s="3">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
-        <v>42583</v>
-      </c>
-      <c r="B143" s="3">
-        <v>528</v>
-      </c>
-      <c r="C143" s="3">
-        <v>666</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E143" s="3">
-        <v>652</v>
-      </c>
-      <c r="F143" s="3">
-        <v>652</v>
-      </c>
-      <c r="G143" s="3">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
-        <v>42614</v>
-      </c>
-      <c r="B144" s="3">
-        <v>525</v>
-      </c>
-      <c r="C144" s="3">
-        <v>662</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G144" s="3">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
-        <v>42644</v>
-      </c>
-      <c r="B145" s="3">
-        <v>517</v>
-      </c>
-      <c r="C145" s="3">
-        <v>652</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="D145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G145" s="25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="11">
+        <v>42675</v>
+      </c>
+      <c r="B146" s="25">
+        <v>521</v>
+      </c>
+      <c r="C146" s="25">
+        <v>651</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -69105,12 +69713,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:U1"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -69119,15 +69727,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -72189,232 +72797,255 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
+      <c r="A136" s="11">
         <v>42370</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="25">
         <v>4816</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="25">
         <v>5126</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E136" s="3">
+      <c r="D136" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E136" s="25">
         <v>4891</v>
       </c>
-      <c r="F136" s="3">
-        <v>5011</v>
-      </c>
-      <c r="G136" s="3">
-        <v>4877</v>
+      <c r="F136" s="25">
+        <v>4993</v>
+      </c>
+      <c r="G136" s="25">
+        <v>4911</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
+      <c r="A137" s="11">
         <v>42401</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="25">
         <v>4896</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="25">
         <v>5279</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E137" s="3">
+      <c r="D137" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="25">
         <v>4919</v>
       </c>
-      <c r="F137" s="3">
-        <v>5031</v>
-      </c>
-      <c r="G137" s="3">
-        <v>4901</v>
+      <c r="F137" s="25">
+        <v>5015</v>
+      </c>
+      <c r="G137" s="25">
+        <v>4939</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
+      <c r="A138" s="11">
         <v>42430</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="25">
         <v>4534</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="25">
         <v>4916</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E138" s="3">
+      <c r="D138" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="25">
         <v>4830</v>
       </c>
-      <c r="F138" s="3">
-        <v>4871</v>
-      </c>
-      <c r="G138" s="3">
-        <v>4747</v>
+      <c r="F138" s="25">
+        <v>4925</v>
+      </c>
+      <c r="G138" s="25">
+        <v>4840</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
+      <c r="A139" s="11">
         <v>42461</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="25">
         <v>4900</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="25">
         <v>5163</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E139" s="3">
-        <v>5038</v>
-      </c>
-      <c r="F139" s="3">
-        <v>5057</v>
-      </c>
-      <c r="G139" s="3">
-        <v>4939</v>
+      <c r="D139" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E139" s="25">
+        <v>5033</v>
+      </c>
+      <c r="F139" s="25">
+        <v>5067</v>
+      </c>
+      <c r="G139" s="25">
+        <v>5043</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
+      <c r="A140" s="11">
         <v>42491</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="25">
         <v>4799</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="25">
         <v>5172</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E140" s="3">
+      <c r="D140" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E140" s="25">
         <v>4787</v>
       </c>
-      <c r="F140" s="3">
-        <v>4798</v>
-      </c>
-      <c r="G140" s="3">
+      <c r="F140" s="25">
+        <v>4808</v>
+      </c>
+      <c r="G140" s="25">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="11">
+        <v>42522</v>
+      </c>
+      <c r="B141" s="25">
+        <v>4771</v>
+      </c>
+      <c r="C141" s="25">
+        <v>5008</v>
+      </c>
+      <c r="D141" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" s="25">
         <v>4679</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
-        <v>42522</v>
-      </c>
-      <c r="B141" s="3">
-        <v>4771</v>
-      </c>
-      <c r="C141" s="3">
-        <v>5008</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E141" s="3">
-        <v>4679</v>
-      </c>
-      <c r="F141" s="3">
-        <v>4627</v>
-      </c>
-      <c r="G141" s="3">
-        <v>4507</v>
+      <c r="F141" s="25">
+        <v>4685</v>
+      </c>
+      <c r="G141" s="25">
+        <v>4685</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
+      <c r="A142" s="11">
         <v>42552</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="25">
         <v>4767</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="25">
         <v>5246</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E142" s="3">
-        <v>4937</v>
-      </c>
-      <c r="F142" s="3">
-        <v>4688</v>
-      </c>
-      <c r="G142" s="3">
-        <v>4645</v>
+      <c r="D142" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" s="25">
+        <v>4957</v>
+      </c>
+      <c r="F142" s="25">
+        <v>4942</v>
+      </c>
+      <c r="G142" s="25">
+        <v>4944</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
+      <c r="A143" s="11">
         <v>42583</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="25">
         <v>4936</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="25">
         <v>5154</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E143" s="3">
-        <v>4537</v>
-      </c>
-      <c r="F143" s="3">
-        <v>2932</v>
-      </c>
-      <c r="G143" s="3">
+      <c r="D143" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E143" s="25">
+        <v>4595</v>
+      </c>
+      <c r="F143" s="25">
         <v>4542</v>
       </c>
+      <c r="G143" s="25">
+        <v>4804</v>
+      </c>
     </row>
     <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
+      <c r="A144" s="11">
         <v>42614</v>
       </c>
-      <c r="B144" s="3">
-        <v>4874</v>
-      </c>
-      <c r="C144" s="3">
-        <v>5094</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E144" s="3">
-        <v>4160</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G144" s="3">
-        <v>4568</v>
+      <c r="B144" s="25">
+        <v>4861</v>
+      </c>
+      <c r="C144" s="25">
+        <v>5077</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E144" s="25">
+        <v>4470</v>
+      </c>
+      <c r="F144" s="25">
+        <v>3234</v>
+      </c>
+      <c r="G144" s="25">
+        <v>4831</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
+      <c r="A145" s="11">
         <v>42644</v>
       </c>
-      <c r="B145" s="3">
-        <v>4783</v>
-      </c>
-      <c r="C145" s="3">
-        <v>5002</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="B145" s="25">
+        <v>4782</v>
+      </c>
+      <c r="C145" s="25">
+        <v>4997</v>
+      </c>
+      <c r="D145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E145" s="25">
+        <v>4345</v>
+      </c>
+      <c r="F145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G145" s="25">
+        <v>4749</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="11">
+        <v>42675</v>
+      </c>
+      <c r="B146" s="25">
+        <v>4862</v>
+      </c>
+      <c r="C146" s="25">
+        <v>5082</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="25">
+        <v>1624</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" s="25" t="s">
         <v>91</v>
       </c>
     </row>
@@ -72432,12 +73063,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:U1"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -72446,15 +73077,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -75516,232 +76147,255 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
+      <c r="A136" s="11">
         <v>42370</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="25">
         <v>132</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="25">
         <v>146</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E136" s="3">
+      <c r="D136" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E136" s="25">
         <v>230</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F136" s="25">
         <v>230</v>
       </c>
-      <c r="G136" s="3">
+      <c r="G136" s="25">
         <v>226</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
+      <c r="A137" s="11">
         <v>42401</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="25">
         <v>133</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="25">
         <v>146</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E137" s="3">
+      <c r="D137" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="25">
         <v>231</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137" s="25">
         <v>231</v>
       </c>
-      <c r="G137" s="3">
+      <c r="G137" s="25">
         <v>225</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
+      <c r="A138" s="11">
         <v>42430</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="25">
         <v>129</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="25">
         <v>143</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E138" s="3">
+      <c r="D138" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="25">
         <v>221</v>
       </c>
-      <c r="F138" s="3">
+      <c r="F138" s="25">
         <v>221</v>
       </c>
-      <c r="G138" s="3">
+      <c r="G138" s="25">
         <v>216</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
+      <c r="A139" s="11">
         <v>42461</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="25">
         <v>129</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="25">
         <v>143</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E139" s="3">
+      <c r="D139" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E139" s="25">
         <v>229</v>
       </c>
-      <c r="F139" s="3">
+      <c r="F139" s="25">
         <v>229</v>
       </c>
-      <c r="G139" s="3">
-        <v>222</v>
+      <c r="G139" s="25">
+        <v>223</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
+      <c r="A140" s="11">
         <v>42491</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="25">
         <v>130</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="25">
         <v>144</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E140" s="3">
+      <c r="D140" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E140" s="25">
         <v>228</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="25">
         <v>228</v>
       </c>
-      <c r="G140" s="3">
+      <c r="G140" s="25">
         <v>221</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
+      <c r="A141" s="11">
         <v>42522</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="25">
         <v>129</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="25">
         <v>143</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E141" s="3">
+      <c r="D141" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" s="25">
         <v>225</v>
       </c>
-      <c r="F141" s="3">
+      <c r="F141" s="25">
         <v>225</v>
       </c>
-      <c r="G141" s="3">
-        <v>221</v>
+      <c r="G141" s="25">
+        <v>217</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
+      <c r="A142" s="11">
         <v>42552</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="25">
         <v>126</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="25">
         <v>139</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E142" s="3">
+      <c r="D142" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" s="25">
+        <v>211</v>
+      </c>
+      <c r="F142" s="25">
         <v>210</v>
       </c>
-      <c r="F142" s="3">
+      <c r="G142" s="25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="11">
+        <v>42583</v>
+      </c>
+      <c r="B143" s="25">
+        <v>121</v>
+      </c>
+      <c r="C143" s="25">
+        <v>134</v>
+      </c>
+      <c r="D143" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E143" s="25">
+        <v>195</v>
+      </c>
+      <c r="F143" s="25">
+        <v>195</v>
+      </c>
+      <c r="G143" s="25">
         <v>209</v>
       </c>
-      <c r="G142" s="3">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
-        <v>42583</v>
-      </c>
-      <c r="B143" s="3">
-        <v>121</v>
-      </c>
-      <c r="C143" s="3">
-        <v>134</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E143" s="3">
-        <v>195</v>
-      </c>
-      <c r="F143" s="3">
-        <v>193</v>
-      </c>
-      <c r="G143" s="3">
-        <v>218</v>
-      </c>
     </row>
     <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
+      <c r="A144" s="11">
         <v>42614</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="25">
         <v>123</v>
       </c>
-      <c r="C144" s="3">
-        <v>137</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E144" s="3">
+      <c r="C144" s="25">
+        <v>136</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E144" s="25">
+        <v>205</v>
+      </c>
+      <c r="F144" s="25">
         <v>196</v>
       </c>
-      <c r="F144" s="3">
-        <v>70</v>
-      </c>
-      <c r="G144" s="3">
-        <v>220</v>
+      <c r="G144" s="25">
+        <v>212</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
+      <c r="A145" s="11">
         <v>42644</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="25">
         <v>122</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="25">
         <v>136</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E145" s="3">
-        <v>80</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="D145" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E145" s="25">
+        <v>129</v>
+      </c>
+      <c r="F145" s="25">
+        <v>64</v>
+      </c>
+      <c r="G145" s="25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="11">
+        <v>42675</v>
+      </c>
+      <c r="B146" s="25">
+        <v>125</v>
+      </c>
+      <c r="C146" s="25">
+        <v>139</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="25">
+        <v>162</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" s="25" t="s">
         <v>91</v>
       </c>
     </row>
